--- a/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,19 +635,19 @@
         <v>0.9577993538742211</v>
       </c>
       <c r="F3">
+        <v>1.310308247865847</v>
+      </c>
+      <c r="G3">
+        <v>0.951613210681366</v>
+      </c>
+      <c r="H3">
         <v>1.124906807696364</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.9524967299971038</v>
       </c>
-      <c r="H3">
-        <v>1.109003055051344</v>
-      </c>
-      <c r="I3">
-        <v>0.951613210681366</v>
-      </c>
       <c r="J3">
-        <v>1.310308247865847</v>
+        <v>1.109003055051343</v>
       </c>
       <c r="K3">
         <v>1.124906807696364</v>
@@ -685,19 +697,19 @@
         <v>0.9667862831996308</v>
       </c>
       <c r="F4">
+        <v>1.668569767063155</v>
+      </c>
+      <c r="G4">
+        <v>0.907985466566307</v>
+      </c>
+      <c r="H4">
         <v>1.195481071040531</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.9803550201303101</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.230830920623486</v>
-      </c>
-      <c r="I4">
-        <v>0.907985466566307</v>
-      </c>
-      <c r="J4">
-        <v>1.668569767063155</v>
       </c>
       <c r="K4">
         <v>1.195481071040531</v>
@@ -741,25 +753,25 @@
         <v>1.599687208867323</v>
       </c>
       <c r="D5">
-        <v>2.461556790567383</v>
+        <v>2.461556790567382</v>
       </c>
       <c r="E5">
         <v>0.7317998617811439</v>
       </c>
       <c r="F5">
+        <v>2.461556790567382</v>
+      </c>
+      <c r="G5">
+        <v>0.9384536978218471</v>
+      </c>
+      <c r="H5">
         <v>1.599687208867323</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.301760463511203</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.590628985224071</v>
-      </c>
-      <c r="I5">
-        <v>0.9384536978218471</v>
-      </c>
-      <c r="J5">
-        <v>2.461556790567383</v>
       </c>
       <c r="K5">
         <v>1.599687208867323</v>
@@ -783,10 +795,10 @@
         <v>1.59768128707195</v>
       </c>
       <c r="R5">
-        <v>1.598182767520794</v>
+        <v>1.598182767520793</v>
       </c>
       <c r="S5">
-        <v>1.598182767520794</v>
+        <v>1.598182767520793</v>
       </c>
       <c r="T5">
         <v>1.437314501295495</v>
@@ -803,25 +815,25 @@
         <v>2.135714840676817</v>
       </c>
       <c r="D6">
-        <v>4.994829886741191</v>
+        <v>4.994829886741192</v>
       </c>
       <c r="E6">
         <v>1.433290639501299</v>
       </c>
       <c r="F6">
+        <v>4.994829886741192</v>
+      </c>
+      <c r="G6">
+        <v>0.4048621348257982</v>
+      </c>
+      <c r="H6">
         <v>2.135714840676817</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.3159496236936327</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>2.08036688856496</v>
-      </c>
-      <c r="I6">
-        <v>0.4048621348257982</v>
-      </c>
-      <c r="J6">
-        <v>4.994829886741191</v>
       </c>
       <c r="K6">
         <v>2.135714840676817</v>
@@ -836,7 +848,7 @@
         <v>3.214060263121245</v>
       </c>
       <c r="O6">
-        <v>2.836162471602483</v>
+        <v>2.836162471602484</v>
       </c>
       <c r="P6">
         <v>2.854611788973102</v>
@@ -868,28 +880,28 @@
         <v>1.051284342888698</v>
       </c>
       <c r="E7">
-        <v>0.9982500153704</v>
+        <v>0.9982500153703996</v>
       </c>
       <c r="F7">
+        <v>1.051284342888698</v>
+      </c>
+      <c r="G7">
+        <v>0.9982847086394048</v>
+      </c>
+      <c r="H7">
         <v>1.003122250366925</v>
       </c>
-      <c r="G7">
-        <v>0.9985465884712557</v>
-      </c>
-      <c r="H7">
-        <v>0.9988325556293619</v>
-      </c>
       <c r="I7">
-        <v>0.9982847086394057</v>
+        <v>0.9985465884712559</v>
       </c>
       <c r="J7">
-        <v>1.051284342888698</v>
+        <v>0.9988325556293631</v>
       </c>
       <c r="K7">
         <v>1.003122250366925</v>
       </c>
       <c r="L7">
-        <v>0.9982500153704</v>
+        <v>0.9982500153703996</v>
       </c>
       <c r="M7">
         <v>1.024767179129549</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.013981013507681</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="D8">
-        <v>1.117498292213453</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="E8">
-        <v>0.9965051545208373</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="F8">
-        <v>1.013981013507681</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="G8">
-        <v>0.9862242328718517</v>
+        <v>0.9942596572730843</v>
       </c>
       <c r="H8">
-        <v>0.9984840724777748</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="I8">
-        <v>0.9942596572730837</v>
+        <v>0.9862242328718512</v>
       </c>
       <c r="J8">
-        <v>1.117498292213453</v>
+        <v>0.9984840724777749</v>
       </c>
       <c r="K8">
-        <v>1.013981013507681</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="L8">
-        <v>0.9965051545208373</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="M8">
-        <v>1.057001723367145</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="N8">
-        <v>1.057001723367145</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="O8">
-        <v>1.037495839737355</v>
+        <v>1.037495839737358</v>
       </c>
       <c r="P8">
-        <v>1.042661486747324</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="Q8">
-        <v>1.042661486747324</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="R8">
-        <v>1.035491368437413</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="S8">
-        <v>1.035491368437413</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="T8">
-        <v>1.01782540381078</v>
+        <v>1.017825403810781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -995,19 +1007,19 @@
         <v>0.9927276100201204</v>
       </c>
       <c r="F9">
+        <v>1.173412689887706</v>
+      </c>
+      <c r="G9">
+        <v>0.9959869117992199</v>
+      </c>
+      <c r="H9">
         <v>1.060035765223649</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.987451634747159</v>
       </c>
-      <c r="H9">
-        <v>0.997129385053137</v>
-      </c>
-      <c r="I9">
-        <v>0.9959869117992202</v>
-      </c>
       <c r="J9">
-        <v>1.173412689887706</v>
+        <v>0.9971293850531368</v>
       </c>
       <c r="K9">
         <v>1.060035765223649</v>
@@ -1057,19 +1069,19 @@
         <v>0.9949440990187354</v>
       </c>
       <c r="F10">
+        <v>1.303562166592332</v>
+      </c>
+      <c r="G10">
+        <v>0.9929639670863716</v>
+      </c>
+      <c r="H10">
         <v>1.074045809862915</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.9775314641206497</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.9950774256699426</v>
-      </c>
-      <c r="I10">
-        <v>0.9929639670863716</v>
-      </c>
-      <c r="J10">
-        <v>1.303562166592332</v>
       </c>
       <c r="K10">
         <v>1.074045809862915</v>
@@ -1110,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.367033613584426</v>
+        <v>1.367033613584427</v>
       </c>
       <c r="D11">
         <v>1.701875609980358</v>
@@ -1119,22 +1131,22 @@
         <v>0.958758153822871</v>
       </c>
       <c r="F11">
-        <v>1.367033613584426</v>
+        <v>1.701875609980358</v>
       </c>
       <c r="G11">
-        <v>1.145335557488478</v>
+        <v>0.9587522763341066</v>
       </c>
       <c r="H11">
+        <v>1.367033613584427</v>
+      </c>
+      <c r="I11">
+        <v>1.145335557488477</v>
+      </c>
+      <c r="J11">
         <v>0.9975857546836984</v>
       </c>
-      <c r="I11">
-        <v>0.9587522763341064</v>
-      </c>
-      <c r="J11">
-        <v>1.701875609980358</v>
-      </c>
       <c r="K11">
-        <v>1.367033613584426</v>
+        <v>1.367033613584427</v>
       </c>
       <c r="L11">
         <v>0.958758153822871</v>
@@ -1181,19 +1193,19 @@
         <v>0.03001048724434658</v>
       </c>
       <c r="F12">
+        <v>0.001195947493241166</v>
+      </c>
+      <c r="G12">
+        <v>1.36929409942775</v>
+      </c>
+      <c r="H12">
         <v>3.835382676343219</v>
       </c>
-      <c r="G12">
-        <v>0.0003904390819234738</v>
-      </c>
-      <c r="H12">
-        <v>1.123143795900912</v>
-      </c>
       <c r="I12">
-        <v>1.36929409942775</v>
+        <v>0.0003904390819234766</v>
       </c>
       <c r="J12">
-        <v>0.001195947493241166</v>
+        <v>1.123143795900909</v>
       </c>
       <c r="K12">
         <v>3.835382676343219</v>
@@ -1208,7 +1220,7 @@
         <v>0.01560321736879387</v>
       </c>
       <c r="O12">
-        <v>0.3847834102128331</v>
+        <v>0.3847834102128324</v>
       </c>
       <c r="P12">
         <v>1.288863037026936</v>
@@ -1223,7 +1235,7 @@
         <v>1.925492946856006</v>
       </c>
       <c r="T12">
-        <v>1.059902907581899</v>
+        <v>1.059902907581898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.006242625921474099</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="D13">
-        <v>0.4867331853026468</v>
+        <v>0.4867331853026466</v>
       </c>
       <c r="E13">
         <v>2.103189352075622</v>
       </c>
       <c r="F13">
-        <v>0.006242625921474099</v>
+        <v>0.4867331853026466</v>
       </c>
       <c r="G13">
-        <v>0.3335060775395665</v>
+        <v>1.06817823289402</v>
       </c>
       <c r="H13">
-        <v>0.2004275526633825</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="I13">
-        <v>1.068178232894021</v>
+        <v>0.3335060775395671</v>
       </c>
       <c r="J13">
-        <v>0.4867331853026468</v>
+        <v>0.2004275526633824</v>
       </c>
       <c r="K13">
-        <v>0.006242625921474099</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="L13">
         <v>2.103189352075622</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002237596383924272</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="D14">
-        <v>0.00132849084851455</v>
+        <v>0.001328490848514552</v>
       </c>
       <c r="E14">
-        <v>0.3632148420855515</v>
+        <v>0.3632148420855519</v>
       </c>
       <c r="F14">
-        <v>0.002237596383924272</v>
+        <v>0.001328490848514552</v>
       </c>
       <c r="G14">
-        <v>1.379937255016047</v>
+        <v>2.111746370789562</v>
       </c>
       <c r="H14">
-        <v>0.04684934235621934</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="I14">
-        <v>2.111746370789562</v>
+        <v>1.379937255016046</v>
       </c>
       <c r="J14">
-        <v>0.00132849084851455</v>
+        <v>0.04684934235621927</v>
       </c>
       <c r="K14">
-        <v>0.002237596383924272</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="L14">
-        <v>0.3632148420855515</v>
+        <v>0.3632148420855519</v>
       </c>
       <c r="M14">
-        <v>0.182271666467033</v>
+        <v>0.1822716664670332</v>
       </c>
       <c r="N14">
-        <v>0.182271666467033</v>
+        <v>0.1822716664670332</v>
       </c>
       <c r="O14">
-        <v>0.1371308917634285</v>
+        <v>0.1371308917634286</v>
       </c>
       <c r="P14">
-        <v>0.1222603097726635</v>
+        <v>0.1222603097726636</v>
       </c>
       <c r="Q14">
-        <v>0.1222603097726635</v>
+        <v>0.1222603097726636</v>
       </c>
       <c r="R14">
-        <v>0.09225463142547867</v>
+        <v>0.09225463142547877</v>
       </c>
       <c r="S14">
-        <v>0.09225463142547867</v>
+        <v>0.09225463142547877</v>
       </c>
       <c r="T14">
-        <v>0.6508856495799699</v>
+        <v>0.6508856495799696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.359611698722837</v>
+        <v>2.359611698722836</v>
       </c>
       <c r="D15">
         <v>0.4869577846943858</v>
@@ -1367,22 +1379,22 @@
         <v>0.4028156866737077</v>
       </c>
       <c r="F15">
-        <v>2.359611698722837</v>
+        <v>0.4869577846943858</v>
       </c>
       <c r="G15">
+        <v>0.6766963675953208</v>
+      </c>
+      <c r="H15">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="I15">
         <v>1.376818959164313</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>2.017995838561733</v>
       </c>
-      <c r="I15">
-        <v>0.6766963675953208</v>
-      </c>
-      <c r="J15">
-        <v>0.4869577846943858</v>
-      </c>
       <c r="K15">
-        <v>2.359611698722837</v>
+        <v>2.359611698722836</v>
       </c>
       <c r="L15">
         <v>0.4028156866737077</v>
@@ -1394,7 +1406,7 @@
         <v>0.4448867356840467</v>
       </c>
       <c r="O15">
-        <v>0.9692564366432755</v>
+        <v>0.9692564366432754</v>
       </c>
       <c r="P15">
         <v>1.08312839003031</v>
@@ -1403,10 +1415,10 @@
         <v>1.08312839003031</v>
       </c>
       <c r="R15">
-        <v>1.402249217203442</v>
+        <v>1.402249217203441</v>
       </c>
       <c r="S15">
-        <v>1.402249217203442</v>
+        <v>1.402249217203441</v>
       </c>
       <c r="T15">
         <v>1.220149389235383</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001881522214346</v>
+        <v>2.906690014384095</v>
       </c>
       <c r="D16">
-        <v>1.006170774587691</v>
+        <v>6.419645182021565</v>
       </c>
       <c r="E16">
-        <v>1.001488506621857</v>
+        <v>0.2088897251936642</v>
       </c>
       <c r="F16">
-        <v>1.001881522214346</v>
+        <v>6.419645182021565</v>
       </c>
       <c r="G16">
-        <v>1.003285536976803</v>
+        <v>0.2104639068306447</v>
       </c>
       <c r="H16">
-        <v>1.002720050112524</v>
+        <v>2.906690014384095</v>
       </c>
       <c r="I16">
-        <v>1.000498040550281</v>
+        <v>0.1936876909923848</v>
       </c>
       <c r="J16">
-        <v>1.006170774587691</v>
+        <v>2.981340790044134</v>
       </c>
       <c r="K16">
-        <v>1.001881522214346</v>
+        <v>2.906690014384095</v>
       </c>
       <c r="L16">
-        <v>1.001488506621857</v>
+        <v>0.2088897251936642</v>
       </c>
       <c r="M16">
-        <v>1.003829640604774</v>
+        <v>3.314267453607615</v>
       </c>
       <c r="N16">
-        <v>1.003829640604774</v>
+        <v>3.314267453607615</v>
       </c>
       <c r="O16">
-        <v>1.003459777107357</v>
+        <v>3.203291899086455</v>
       </c>
       <c r="P16">
-        <v>1.003180267807964</v>
+        <v>3.178408307199775</v>
       </c>
       <c r="Q16">
-        <v>1.003180267807964</v>
+        <v>3.178408307199775</v>
       </c>
       <c r="R16">
-        <v>1.00285558140956</v>
+        <v>3.110478733995855</v>
       </c>
       <c r="S16">
-        <v>1.00285558140956</v>
+        <v>3.110478733995855</v>
       </c>
       <c r="T16">
-        <v>1.002674071843917</v>
+        <v>2.153452884911081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9762798381416543</v>
+        <v>2.2218428159414</v>
       </c>
       <c r="D17">
-        <v>1.091507354589467</v>
+        <v>5.67738077413532</v>
       </c>
       <c r="E17">
-        <v>0.9987341754763517</v>
+        <v>0.4162001028188966</v>
       </c>
       <c r="F17">
-        <v>0.9762798381416543</v>
+        <v>5.67738077413532</v>
       </c>
       <c r="G17">
-        <v>1.01145794008015</v>
+        <v>0.4151869144652852</v>
       </c>
       <c r="H17">
-        <v>0.9854927788769746</v>
+        <v>2.2218428159414</v>
       </c>
       <c r="I17">
-        <v>0.9978092532541324</v>
+        <v>0.3882176589113591</v>
       </c>
       <c r="J17">
-        <v>1.091507354589467</v>
+        <v>2.365586420041832</v>
       </c>
       <c r="K17">
-        <v>0.9762798381416543</v>
+        <v>2.2218428159414</v>
       </c>
       <c r="L17">
-        <v>0.9987341754763517</v>
+        <v>0.4162001028188966</v>
       </c>
       <c r="M17">
-        <v>1.04512076503291</v>
+        <v>3.046790438477108</v>
       </c>
       <c r="N17">
-        <v>1.04512076503291</v>
+        <v>3.046790438477108</v>
       </c>
       <c r="O17">
-        <v>1.025244769647598</v>
+        <v>2.819722432332016</v>
       </c>
       <c r="P17">
-        <v>1.022173789402491</v>
+        <v>2.771807897631872</v>
       </c>
       <c r="Q17">
-        <v>1.022173789402491</v>
+        <v>2.771807897631872</v>
       </c>
       <c r="R17">
-        <v>1.010700301587282</v>
+        <v>2.634316627209254</v>
       </c>
       <c r="S17">
-        <v>1.010700301587282</v>
+        <v>2.634316627209254</v>
       </c>
       <c r="T17">
-        <v>1.010213556736455</v>
+        <v>1.914069114385682</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.131291128779573</v>
+        <v>0.8876394559400272</v>
       </c>
       <c r="D18">
-        <v>0.9269954628377155</v>
+        <v>4.093475670672387</v>
       </c>
       <c r="E18">
-        <v>1.005734921244429</v>
+        <v>0.8371733595696502</v>
       </c>
       <c r="F18">
-        <v>1.131291128779573</v>
+        <v>4.093475670672387</v>
       </c>
       <c r="G18">
-        <v>1.035922430228933</v>
+        <v>0.8282216942981616</v>
       </c>
       <c r="H18">
-        <v>1.095615118260847</v>
+        <v>0.8876394559400272</v>
       </c>
       <c r="I18">
-        <v>0.9840609961546819</v>
+        <v>0.7844655611435071</v>
       </c>
       <c r="J18">
-        <v>0.9269954628377155</v>
+        <v>1.123507760917852</v>
       </c>
       <c r="K18">
-        <v>1.131291128779573</v>
+        <v>0.8876394559400272</v>
       </c>
       <c r="L18">
-        <v>1.005734921244429</v>
+        <v>0.8371733595696502</v>
       </c>
       <c r="M18">
-        <v>0.9663651920410722</v>
+        <v>2.465324515121019</v>
       </c>
       <c r="N18">
-        <v>0.9663651920410722</v>
+        <v>2.465324515121019</v>
       </c>
       <c r="O18">
-        <v>1.009448500780997</v>
+        <v>2.018052263719963</v>
       </c>
       <c r="P18">
-        <v>1.021340504287239</v>
+        <v>1.939429495394021</v>
       </c>
       <c r="Q18">
-        <v>1.021340504287239</v>
+        <v>1.939429495394021</v>
       </c>
       <c r="R18">
-        <v>1.048828160410323</v>
+        <v>1.676481985530523</v>
       </c>
       <c r="S18">
-        <v>1.048828160410323</v>
+        <v>1.676481985530523</v>
       </c>
       <c r="T18">
-        <v>1.02993667625103</v>
+        <v>1.425747250423598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="D19">
+        <v>5.538705283933833</v>
+      </c>
+      <c r="E19">
+        <v>0.646510919959486</v>
+      </c>
+      <c r="F19">
+        <v>5.538705283933833</v>
+      </c>
+      <c r="G19">
+        <v>0.807231532814811</v>
+      </c>
+      <c r="H19">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="I19">
+        <v>1.274822473673664</v>
+      </c>
+      <c r="J19">
+        <v>1.029091419237669</v>
+      </c>
+      <c r="K19">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="L19">
+        <v>0.646510919959486</v>
+      </c>
+      <c r="M19">
+        <v>3.092608101946659</v>
+      </c>
+      <c r="N19">
+        <v>3.092608101946659</v>
+      </c>
+      <c r="O19">
+        <v>2.404769207710329</v>
+      </c>
+      <c r="P19">
+        <v>2.384888294185087</v>
+      </c>
+      <c r="Q19">
+        <v>2.384888294185087</v>
+      </c>
+      <c r="R19">
+        <v>2.0310283903043</v>
+      </c>
+      <c r="S19">
+        <v>2.0310283903043</v>
+      </c>
+      <c r="T19">
+        <v>1.710968384713567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="D20">
+        <v>1.006170774587693</v>
+      </c>
+      <c r="E20">
+        <v>1.001488506621857</v>
+      </c>
+      <c r="F20">
+        <v>1.006170774587693</v>
+      </c>
+      <c r="G20">
+        <v>1.000498040550281</v>
+      </c>
+      <c r="H20">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="I20">
+        <v>1.003285536976801</v>
+      </c>
+      <c r="J20">
+        <v>1.002720050112524</v>
+      </c>
+      <c r="K20">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="L20">
+        <v>1.001488506621857</v>
+      </c>
+      <c r="M20">
+        <v>1.003829640604775</v>
+      </c>
+      <c r="N20">
+        <v>1.003829640604775</v>
+      </c>
+      <c r="O20">
+        <v>1.003459777107358</v>
+      </c>
+      <c r="P20">
+        <v>1.003180267807965</v>
+      </c>
+      <c r="Q20">
+        <v>1.003180267807965</v>
+      </c>
+      <c r="R20">
+        <v>1.00285558140956</v>
+      </c>
+      <c r="S20">
+        <v>1.00285558140956</v>
+      </c>
+      <c r="T20">
+        <v>1.002674071843917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="D21">
+        <v>1.091507354589469</v>
+      </c>
+      <c r="E21">
+        <v>0.9987341754763509</v>
+      </c>
+      <c r="F21">
+        <v>1.091507354589469</v>
+      </c>
+      <c r="G21">
+        <v>0.9978092532541321</v>
+      </c>
+      <c r="H21">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="I21">
+        <v>1.011457940080151</v>
+      </c>
+      <c r="J21">
+        <v>0.9854927788769757</v>
+      </c>
+      <c r="K21">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="L21">
+        <v>0.9987341754763509</v>
+      </c>
+      <c r="M21">
+        <v>1.04512076503291</v>
+      </c>
+      <c r="N21">
+        <v>1.04512076503291</v>
+      </c>
+      <c r="O21">
+        <v>1.025244769647599</v>
+      </c>
+      <c r="P21">
+        <v>1.022173789402492</v>
+      </c>
+      <c r="Q21">
+        <v>1.022173789402492</v>
+      </c>
+      <c r="R21">
+        <v>1.010700301587283</v>
+      </c>
+      <c r="S21">
+        <v>1.010700301587283</v>
+      </c>
+      <c r="T21">
+        <v>1.010213556736456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="D22">
+        <v>0.9269954628377165</v>
+      </c>
+      <c r="E22">
+        <v>1.005734921244428</v>
+      </c>
+      <c r="F22">
+        <v>0.9269954628377165</v>
+      </c>
+      <c r="G22">
+        <v>0.9840609961546802</v>
+      </c>
+      <c r="H22">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="I22">
+        <v>1.035922430228931</v>
+      </c>
+      <c r="J22">
+        <v>1.095615118260849</v>
+      </c>
+      <c r="K22">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="L22">
+        <v>1.005734921244428</v>
+      </c>
+      <c r="M22">
+        <v>0.9663651920410725</v>
+      </c>
+      <c r="N22">
+        <v>0.9663651920410725</v>
+      </c>
+      <c r="O22">
+        <v>1.009448500780998</v>
+      </c>
+      <c r="P22">
+        <v>1.02134050428724</v>
+      </c>
+      <c r="Q22">
+        <v>1.02134050428724</v>
+      </c>
+      <c r="R22">
+        <v>1.048828160410324</v>
+      </c>
+      <c r="S22">
+        <v>1.048828160410324</v>
+      </c>
+      <c r="T22">
+        <v>1.02993667625103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.059589806164968</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.579391214274182</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.7994651389368337</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>1.579391214274182</v>
+      </c>
+      <c r="G23">
+        <v>1.049196621869387</v>
+      </c>
+      <c r="H23">
         <v>1.059589806164968</v>
       </c>
-      <c r="G19">
+      <c r="I23">
         <v>1.172517872298847</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>1.124071295691524</v>
       </c>
-      <c r="I19">
-        <v>1.049196621869387</v>
-      </c>
-      <c r="J19">
-        <v>1.579391214274182</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.059589806164968</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.7994651389368337</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.189428176605508</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.189428176605508</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.16764254963418</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.146148719791995</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.146148719791995</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.124508991385238</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.124508991385238</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.130705324872624</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.124906807696364</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="D3">
-        <v>1.310308247865847</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="E3">
-        <v>0.9577993538742211</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="F3">
-        <v>1.310308247865847</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="G3">
-        <v>0.951613210681366</v>
+        <v>0.7774461182201344</v>
       </c>
       <c r="H3">
-        <v>1.124906807696364</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="I3">
-        <v>0.9524967299971038</v>
+        <v>0.8011928128044317</v>
       </c>
       <c r="J3">
-        <v>1.109003055051343</v>
+        <v>1.148798363815448</v>
       </c>
       <c r="K3">
-        <v>1.124906807696364</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="L3">
-        <v>0.9577993538742211</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="M3">
-        <v>1.134053800870034</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="N3">
-        <v>1.134053800870034</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="O3">
-        <v>1.125703552263804</v>
+        <v>2.52767190847643</v>
       </c>
       <c r="P3">
-        <v>1.131004803145478</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="Q3">
-        <v>1.131004803145478</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="R3">
-        <v>1.129480304283199</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="S3">
-        <v>1.129480304283199</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="T3">
-        <v>1.067687900861041</v>
+        <v>1.675260246065919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.195481071040531</v>
+        <v>0.8518923854461274</v>
       </c>
       <c r="D4">
-        <v>1.668569767063155</v>
+        <v>4.837724785616057</v>
       </c>
       <c r="E4">
-        <v>0.9667862831996308</v>
+        <v>0.8206571018491352</v>
       </c>
       <c r="F4">
-        <v>1.668569767063155</v>
+        <v>4.837724785616057</v>
       </c>
       <c r="G4">
-        <v>0.907985466566307</v>
+        <v>0.8034892203914347</v>
       </c>
       <c r="H4">
-        <v>1.195481071040531</v>
+        <v>0.8518923854461274</v>
       </c>
       <c r="I4">
-        <v>0.9803550201303101</v>
+        <v>0.7927095929146366</v>
       </c>
       <c r="J4">
-        <v>1.230830920623486</v>
+        <v>1.139946856948686</v>
       </c>
       <c r="K4">
-        <v>1.195481071040531</v>
+        <v>0.8518923854461274</v>
       </c>
       <c r="L4">
-        <v>0.9667862831996308</v>
+        <v>0.8206571018491352</v>
       </c>
       <c r="M4">
-        <v>1.317678025131393</v>
+        <v>2.829190943732596</v>
       </c>
       <c r="N4">
-        <v>1.317678025131393</v>
+        <v>2.829190943732596</v>
       </c>
       <c r="O4">
-        <v>1.288728990295424</v>
+        <v>2.266109581471293</v>
       </c>
       <c r="P4">
-        <v>1.276945707101106</v>
+        <v>2.170091424303773</v>
       </c>
       <c r="Q4">
-        <v>1.276945707101106</v>
+        <v>2.170091424303773</v>
       </c>
       <c r="R4">
-        <v>1.256579548085962</v>
+        <v>1.840541664589362</v>
       </c>
       <c r="S4">
-        <v>1.256579548085962</v>
+        <v>1.840541664589362</v>
       </c>
       <c r="T4">
-        <v>1.15833475477057</v>
+        <v>1.541069990527679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.599687208867323</v>
+        <v>0.9758812087459854</v>
       </c>
       <c r="D5">
-        <v>2.461556790567382</v>
+        <v>7.302898154475248</v>
       </c>
       <c r="E5">
-        <v>0.7317998617811439</v>
+        <v>0.7404397658949007</v>
       </c>
       <c r="F5">
-        <v>2.461556790567382</v>
+        <v>7.302898154475248</v>
       </c>
       <c r="G5">
-        <v>0.9384536978218471</v>
+        <v>0.7125890720885184</v>
       </c>
       <c r="H5">
-        <v>1.599687208867323</v>
+        <v>0.9758812087459854</v>
       </c>
       <c r="I5">
-        <v>1.301760463511203</v>
+        <v>0.777648748727494</v>
       </c>
       <c r="J5">
-        <v>1.590628985224071</v>
+        <v>1.170370132744825</v>
       </c>
       <c r="K5">
-        <v>1.599687208867323</v>
+        <v>0.9758812087459854</v>
       </c>
       <c r="L5">
-        <v>0.7317998617811439</v>
+        <v>0.7404397658949007</v>
       </c>
       <c r="M5">
-        <v>1.596678326174263</v>
+        <v>4.021668960185075</v>
       </c>
       <c r="N5">
-        <v>1.596678326174263</v>
+        <v>4.021668960185075</v>
       </c>
       <c r="O5">
-        <v>1.594661879190866</v>
+        <v>3.071236017704992</v>
       </c>
       <c r="P5">
-        <v>1.59768128707195</v>
+        <v>3.006406376372045</v>
       </c>
       <c r="Q5">
-        <v>1.59768128707195</v>
+        <v>3.006406376372045</v>
       </c>
       <c r="R5">
-        <v>1.598182767520793</v>
+        <v>2.49877508446553</v>
       </c>
       <c r="S5">
-        <v>1.598182767520793</v>
+        <v>2.49877508446553</v>
       </c>
       <c r="T5">
-        <v>1.437314501295495</v>
+        <v>1.946637847112829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.135714840676817</v>
+        <v>1.623636504414546</v>
       </c>
       <c r="D6">
-        <v>4.994829886741192</v>
+        <v>10.38077538585427</v>
       </c>
       <c r="E6">
-        <v>1.433290639501299</v>
+        <v>0.5596505218687501</v>
       </c>
       <c r="F6">
-        <v>4.994829886741192</v>
+        <v>10.38077538585427</v>
       </c>
       <c r="G6">
-        <v>0.4048621348257982</v>
+        <v>0.7039443901448864</v>
       </c>
       <c r="H6">
-        <v>2.135714840676817</v>
+        <v>1.623636504414546</v>
       </c>
       <c r="I6">
-        <v>0.3159496236936327</v>
+        <v>0.7117452397280685</v>
       </c>
       <c r="J6">
-        <v>2.08036688856496</v>
+        <v>1.417522194018011</v>
       </c>
       <c r="K6">
-        <v>2.135714840676817</v>
+        <v>1.623636504414546</v>
       </c>
       <c r="L6">
-        <v>1.433290639501299</v>
+        <v>0.5596505218687501</v>
       </c>
       <c r="M6">
-        <v>3.214060263121245</v>
+        <v>5.470212953861509</v>
       </c>
       <c r="N6">
-        <v>3.214060263121245</v>
+        <v>5.470212953861509</v>
       </c>
       <c r="O6">
-        <v>2.836162471602484</v>
+        <v>4.119316033913676</v>
       </c>
       <c r="P6">
-        <v>2.854611788973102</v>
+        <v>4.188020804045855</v>
       </c>
       <c r="Q6">
-        <v>2.854611788973102</v>
+        <v>4.188020804045855</v>
       </c>
       <c r="R6">
-        <v>2.674887551899031</v>
+        <v>3.546924729138028</v>
       </c>
       <c r="S6">
-        <v>2.674887551899031</v>
+        <v>3.546924729138028</v>
       </c>
       <c r="T6">
-        <v>1.89416900233395</v>
+        <v>2.566212372671422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003122250366925</v>
+        <v>1.970915058163668</v>
       </c>
       <c r="D7">
-        <v>1.051284342888698</v>
+        <v>1.280755243684939</v>
       </c>
       <c r="E7">
-        <v>0.9982500153703996</v>
+        <v>1.894892977521905</v>
       </c>
       <c r="F7">
-        <v>1.051284342888698</v>
+        <v>1.280755243684939</v>
       </c>
       <c r="G7">
-        <v>0.9982847086394048</v>
+        <v>0.1411893858219631</v>
       </c>
       <c r="H7">
-        <v>1.003122250366925</v>
+        <v>1.970915058163668</v>
       </c>
       <c r="I7">
-        <v>0.9985465884712559</v>
+        <v>5.681554219088908</v>
       </c>
       <c r="J7">
-        <v>0.9988325556293631</v>
+        <v>0.03402790105419944</v>
       </c>
       <c r="K7">
-        <v>1.003122250366925</v>
+        <v>1.970915058163668</v>
       </c>
       <c r="L7">
-        <v>0.9982500153703996</v>
+        <v>1.894892977521905</v>
       </c>
       <c r="M7">
-        <v>1.024767179129549</v>
+        <v>1.587824110603422</v>
       </c>
       <c r="N7">
-        <v>1.024767179129549</v>
+        <v>1.587824110603422</v>
       </c>
       <c r="O7">
-        <v>1.016122304629487</v>
+        <v>1.069892040753681</v>
       </c>
       <c r="P7">
-        <v>1.017552202875341</v>
+        <v>1.715521093123504</v>
       </c>
       <c r="Q7">
-        <v>1.017552202875341</v>
+        <v>1.715521093123504</v>
       </c>
       <c r="R7">
-        <v>1.013944714748237</v>
+        <v>1.779369584383545</v>
       </c>
       <c r="S7">
-        <v>1.013944714748237</v>
+        <v>1.779369584383545</v>
       </c>
       <c r="T7">
-        <v>1.008053410227675</v>
+        <v>1.833889130889264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.01398101350768</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="D8">
-        <v>1.117498292213462</v>
+        <v>1.455652432802103</v>
       </c>
       <c r="E8">
-        <v>0.9965051545208358</v>
+        <v>1.883633975494543</v>
       </c>
       <c r="F8">
-        <v>1.117498292213462</v>
+        <v>1.455652432802103</v>
       </c>
       <c r="G8">
-        <v>0.9942596572730843</v>
+        <v>0.1404432961006389</v>
       </c>
       <c r="H8">
-        <v>1.01398101350768</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="I8">
-        <v>0.9862242328718512</v>
+        <v>5.65260721641592</v>
       </c>
       <c r="J8">
-        <v>0.9984840724777749</v>
+        <v>0.03380859370988382</v>
       </c>
       <c r="K8">
-        <v>1.01398101350768</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="L8">
-        <v>0.9965051545208358</v>
+        <v>1.883633975494543</v>
       </c>
       <c r="M8">
-        <v>1.057001723367149</v>
+        <v>1.669643204148323</v>
       </c>
       <c r="N8">
-        <v>1.057001723367149</v>
+        <v>1.669643204148323</v>
       </c>
       <c r="O8">
-        <v>1.037495839737358</v>
+        <v>1.124365000668843</v>
       </c>
       <c r="P8">
-        <v>1.042661486747326</v>
+        <v>1.785502536813574</v>
       </c>
       <c r="Q8">
-        <v>1.042661486747326</v>
+        <v>1.785502536813574</v>
       </c>
       <c r="R8">
-        <v>1.035491368437415</v>
+        <v>1.843432203146199</v>
       </c>
       <c r="S8">
-        <v>1.035491368437415</v>
+        <v>1.843432203146199</v>
       </c>
       <c r="T8">
-        <v>1.017825403810781</v>
+        <v>1.86389445277786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.060035765223649</v>
+        <v>2.019744883580846</v>
       </c>
       <c r="D9">
-        <v>1.173412689887706</v>
+        <v>1.694880497696208</v>
       </c>
       <c r="E9">
-        <v>0.9927276100201204</v>
+        <v>1.87492209570844</v>
       </c>
       <c r="F9">
-        <v>1.173412689887706</v>
+        <v>1.694880497696208</v>
       </c>
       <c r="G9">
-        <v>0.9959869117992199</v>
+        <v>0.1399705680539459</v>
       </c>
       <c r="H9">
-        <v>1.060035765223649</v>
+        <v>2.019744883580846</v>
       </c>
       <c r="I9">
-        <v>0.987451634747159</v>
+        <v>5.636236340656735</v>
       </c>
       <c r="J9">
-        <v>0.9971293850531368</v>
+        <v>0.03348810359419548</v>
       </c>
       <c r="K9">
-        <v>1.060035765223649</v>
+        <v>2.019744883580846</v>
       </c>
       <c r="L9">
-        <v>0.9927276100201204</v>
+        <v>1.87492209570844</v>
       </c>
       <c r="M9">
-        <v>1.083070149953913</v>
+        <v>1.784901296702324</v>
       </c>
       <c r="N9">
-        <v>1.083070149953913</v>
+        <v>1.784901296702324</v>
       </c>
       <c r="O9">
-        <v>1.054423228320321</v>
+        <v>1.201096898999615</v>
       </c>
       <c r="P9">
-        <v>1.075392021710492</v>
+        <v>1.863182492328498</v>
       </c>
       <c r="Q9">
-        <v>1.075392021710492</v>
+        <v>1.863182492328498</v>
       </c>
       <c r="R9">
-        <v>1.071552957588781</v>
+        <v>1.902323090141585</v>
       </c>
       <c r="S9">
-        <v>1.071552957588781</v>
+        <v>1.902323090141585</v>
       </c>
       <c r="T9">
-        <v>1.034457332788499</v>
+        <v>1.899873748215062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074045809862915</v>
+        <v>2.270264368103195</v>
       </c>
       <c r="D10">
-        <v>1.303562166592332</v>
+        <v>2.139447825929259</v>
       </c>
       <c r="E10">
-        <v>0.9949440990187354</v>
+        <v>1.846242380364571</v>
       </c>
       <c r="F10">
-        <v>1.303562166592332</v>
+        <v>2.139447825929259</v>
       </c>
       <c r="G10">
-        <v>0.9929639670863716</v>
+        <v>0.1380873753208764</v>
       </c>
       <c r="H10">
-        <v>1.074045809862915</v>
+        <v>2.270264368103195</v>
       </c>
       <c r="I10">
-        <v>0.9775314641206497</v>
+        <v>5.561434604463662</v>
       </c>
       <c r="J10">
-        <v>0.9950774256699426</v>
+        <v>0.03241603699216188</v>
       </c>
       <c r="K10">
-        <v>1.074045809862915</v>
+        <v>2.270264368103195</v>
       </c>
       <c r="L10">
-        <v>0.9949440990187354</v>
+        <v>1.846242380364571</v>
       </c>
       <c r="M10">
-        <v>1.149253132805534</v>
+        <v>1.992845103146915</v>
       </c>
       <c r="N10">
-        <v>1.149253132805534</v>
+        <v>1.992845103146915</v>
       </c>
       <c r="O10">
-        <v>1.097861230427003</v>
+        <v>1.339368747761997</v>
       </c>
       <c r="P10">
-        <v>1.124184025157994</v>
+        <v>2.085318191465675</v>
       </c>
       <c r="Q10">
-        <v>1.124184025157994</v>
+        <v>2.085318191465675</v>
       </c>
       <c r="R10">
-        <v>1.111649471334224</v>
+        <v>2.131554735625055</v>
       </c>
       <c r="S10">
-        <v>1.111649471334224</v>
+        <v>2.131554735625055</v>
       </c>
       <c r="T10">
-        <v>1.056354155391824</v>
+        <v>1.997982098528954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.367033613584427</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="D11">
-        <v>1.701875609980358</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="E11">
-        <v>0.958758153822871</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="F11">
-        <v>1.701875609980358</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="G11">
-        <v>0.9587522763341066</v>
+        <v>0.9525327865017588</v>
       </c>
       <c r="H11">
-        <v>1.367033613584427</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="I11">
-        <v>1.145335557488477</v>
+        <v>0.9563686681649642</v>
       </c>
       <c r="J11">
-        <v>0.9975857546836984</v>
+        <v>1.107320505835282</v>
       </c>
       <c r="K11">
-        <v>1.367033613584427</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="L11">
-        <v>0.958758153822871</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="M11">
-        <v>1.330316881901615</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="N11">
-        <v>1.330316881901615</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="O11">
-        <v>1.219406506162309</v>
+        <v>1.116821675515764</v>
       </c>
       <c r="P11">
-        <v>1.342555792462552</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="Q11">
-        <v>1.342555792462552</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="R11">
-        <v>1.348675247743021</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="S11">
-        <v>1.348675247743021</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="T11">
-        <v>1.188223494315656</v>
+        <v>1.060468118258177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.835382676343219</v>
+        <v>1.057798780605323</v>
       </c>
       <c r="D12">
-        <v>0.001195947493241166</v>
+        <v>1.158694995290277</v>
       </c>
       <c r="E12">
-        <v>0.03001048724434658</v>
+        <v>0.9842055897719911</v>
       </c>
       <c r="F12">
-        <v>0.001195947493241166</v>
+        <v>1.158694995290277</v>
       </c>
       <c r="G12">
-        <v>1.36929409942775</v>
+        <v>0.9752156583892641</v>
       </c>
       <c r="H12">
-        <v>3.835382676343219</v>
+        <v>1.057798780605323</v>
       </c>
       <c r="I12">
-        <v>0.0003904390819234766</v>
+        <v>1.010997468216941</v>
       </c>
       <c r="J12">
-        <v>1.123143795900909</v>
+        <v>1.048846351191135</v>
       </c>
       <c r="K12">
-        <v>3.835382676343219</v>
+        <v>1.057798780605323</v>
       </c>
       <c r="L12">
-        <v>0.03001048724434658</v>
+        <v>0.9842055897719911</v>
       </c>
       <c r="M12">
-        <v>0.01560321736879387</v>
+        <v>1.071450292531134</v>
       </c>
       <c r="N12">
-        <v>0.01560321736879387</v>
+        <v>1.071450292531134</v>
       </c>
       <c r="O12">
-        <v>0.3847834102128324</v>
+        <v>1.063915645417801</v>
       </c>
       <c r="P12">
-        <v>1.288863037026936</v>
+        <v>1.066899788555864</v>
       </c>
       <c r="Q12">
-        <v>1.288863037026936</v>
+        <v>1.066899788555864</v>
       </c>
       <c r="R12">
-        <v>1.925492946856006</v>
+        <v>1.064624536568229</v>
       </c>
       <c r="S12">
-        <v>1.925492946856006</v>
+        <v>1.064624536568229</v>
       </c>
       <c r="T12">
-        <v>1.059902907581898</v>
+        <v>1.039293140577489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.006242625921474102</v>
+        <v>1.216442644959485</v>
       </c>
       <c r="D13">
-        <v>0.4867331853026466</v>
+        <v>1.514012167024199</v>
       </c>
       <c r="E13">
-        <v>2.103189352075622</v>
+        <v>0.8646570358755999</v>
       </c>
       <c r="F13">
-        <v>0.4867331853026466</v>
+        <v>1.514012167024199</v>
       </c>
       <c r="G13">
-        <v>1.06817823289402</v>
+        <v>0.8908551632459043</v>
       </c>
       <c r="H13">
-        <v>0.006242625921474102</v>
+        <v>1.216442644959485</v>
       </c>
       <c r="I13">
-        <v>0.3335060775395671</v>
+        <v>1.029260162183138</v>
       </c>
       <c r="J13">
-        <v>0.2004275526633824</v>
+        <v>1.193748829385384</v>
       </c>
       <c r="K13">
-        <v>0.006242625921474102</v>
+        <v>1.216442644959485</v>
       </c>
       <c r="L13">
-        <v>2.103189352075622</v>
+        <v>0.8646570358755999</v>
       </c>
       <c r="M13">
-        <v>1.294961268689134</v>
+        <v>1.1893346014499</v>
       </c>
       <c r="N13">
-        <v>1.294961268689134</v>
+        <v>1.1893346014499</v>
       </c>
       <c r="O13">
-        <v>0.9301166966805502</v>
+        <v>1.190806010761728</v>
       </c>
       <c r="P13">
-        <v>0.8653883877665808</v>
+        <v>1.198370615953095</v>
       </c>
       <c r="Q13">
-        <v>0.8653883877665808</v>
+        <v>1.198370615953095</v>
       </c>
       <c r="R13">
-        <v>0.6506019473053041</v>
+        <v>1.202888623204692</v>
       </c>
       <c r="S13">
-        <v>0.6506019473053041</v>
+        <v>1.202888623204692</v>
       </c>
       <c r="T13">
-        <v>0.6997128377327853</v>
+        <v>1.118162667112285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002237596383924268</v>
+        <v>2.006281910863336</v>
       </c>
       <c r="D14">
-        <v>0.001328490848514552</v>
+        <v>2.940038545561155</v>
       </c>
       <c r="E14">
-        <v>0.3632148420855519</v>
+        <v>0.6969785134731346</v>
       </c>
       <c r="F14">
-        <v>0.001328490848514552</v>
+        <v>2.940038545561155</v>
       </c>
       <c r="G14">
-        <v>2.111746370789562</v>
+        <v>0.914135914630152</v>
       </c>
       <c r="H14">
-        <v>0.002237596383924268</v>
+        <v>2.006281910863336</v>
       </c>
       <c r="I14">
-        <v>1.379937255016046</v>
+        <v>0.7026199455989952</v>
       </c>
       <c r="J14">
-        <v>0.04684934235621927</v>
+        <v>1.446748654848713</v>
       </c>
       <c r="K14">
-        <v>0.002237596383924268</v>
+        <v>2.006281910863336</v>
       </c>
       <c r="L14">
-        <v>0.3632148420855519</v>
+        <v>0.6969785134731346</v>
       </c>
       <c r="M14">
-        <v>0.1822716664670332</v>
+        <v>1.818508529517145</v>
       </c>
       <c r="N14">
-        <v>0.1822716664670332</v>
+        <v>1.818508529517145</v>
       </c>
       <c r="O14">
-        <v>0.1371308917634286</v>
+        <v>1.694588571294334</v>
       </c>
       <c r="P14">
-        <v>0.1222603097726636</v>
+        <v>1.881099656632542</v>
       </c>
       <c r="Q14">
-        <v>0.1222603097726636</v>
+        <v>1.881099656632542</v>
       </c>
       <c r="R14">
-        <v>0.09225463142547877</v>
+        <v>1.912395220190241</v>
       </c>
       <c r="S14">
-        <v>0.09225463142547877</v>
+        <v>1.912395220190241</v>
       </c>
       <c r="T14">
-        <v>0.6508856495799696</v>
+        <v>1.451133914162581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.359611698722836</v>
+        <v>1.124906807696364</v>
       </c>
       <c r="D15">
-        <v>0.4869577846943858</v>
+        <v>1.310308247865847</v>
       </c>
       <c r="E15">
-        <v>0.4028156866737077</v>
+        <v>0.9577993538742211</v>
       </c>
       <c r="F15">
-        <v>0.4869577846943858</v>
+        <v>1.310308247865847</v>
       </c>
       <c r="G15">
-        <v>0.6766963675953208</v>
+        <v>0.951613210681366</v>
       </c>
       <c r="H15">
-        <v>2.359611698722836</v>
+        <v>1.124906807696364</v>
       </c>
       <c r="I15">
-        <v>1.376818959164313</v>
+        <v>0.9524967299971038</v>
       </c>
       <c r="J15">
-        <v>2.017995838561733</v>
+        <v>1.109003055051343</v>
       </c>
       <c r="K15">
-        <v>2.359611698722836</v>
+        <v>1.124906807696364</v>
       </c>
       <c r="L15">
-        <v>0.4028156866737077</v>
+        <v>0.9577993538742211</v>
       </c>
       <c r="M15">
-        <v>0.4448867356840467</v>
+        <v>1.134053800870034</v>
       </c>
       <c r="N15">
-        <v>0.4448867356840467</v>
+        <v>1.134053800870034</v>
       </c>
       <c r="O15">
-        <v>0.9692564366432754</v>
+        <v>1.125703552263804</v>
       </c>
       <c r="P15">
-        <v>1.08312839003031</v>
+        <v>1.131004803145478</v>
       </c>
       <c r="Q15">
-        <v>1.08312839003031</v>
+        <v>1.131004803145478</v>
       </c>
       <c r="R15">
-        <v>1.402249217203441</v>
+        <v>1.129480304283199</v>
       </c>
       <c r="S15">
-        <v>1.402249217203441</v>
+        <v>1.129480304283199</v>
       </c>
       <c r="T15">
-        <v>1.220149389235383</v>
+        <v>1.067687900861041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.906690014384095</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="D16">
-        <v>6.419645182021565</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="E16">
-        <v>0.2088897251936642</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="F16">
-        <v>6.419645182021565</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="G16">
-        <v>0.2104639068306447</v>
+        <v>0.907985466566307</v>
       </c>
       <c r="H16">
-        <v>2.906690014384095</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="I16">
-        <v>0.1936876909923848</v>
+        <v>0.9803550201303101</v>
       </c>
       <c r="J16">
-        <v>2.981340790044134</v>
+        <v>1.230830920623486</v>
       </c>
       <c r="K16">
-        <v>2.906690014384095</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="L16">
-        <v>0.2088897251936642</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="M16">
-        <v>3.314267453607615</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="N16">
-        <v>3.314267453607615</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="O16">
-        <v>3.203291899086455</v>
+        <v>1.288728990295424</v>
       </c>
       <c r="P16">
-        <v>3.178408307199775</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="Q16">
-        <v>3.178408307199775</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="R16">
-        <v>3.110478733995855</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="S16">
-        <v>3.110478733995855</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="T16">
-        <v>2.153452884911081</v>
+        <v>1.15833475477057</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.2218428159414</v>
+        <v>1.599687208867323</v>
       </c>
       <c r="D17">
-        <v>5.67738077413532</v>
+        <v>2.461556790567382</v>
       </c>
       <c r="E17">
-        <v>0.4162001028188966</v>
+        <v>0.7317998617811439</v>
       </c>
       <c r="F17">
-        <v>5.67738077413532</v>
+        <v>2.461556790567382</v>
       </c>
       <c r="G17">
-        <v>0.4151869144652852</v>
+        <v>0.9384536978218471</v>
       </c>
       <c r="H17">
-        <v>2.2218428159414</v>
+        <v>1.599687208867323</v>
       </c>
       <c r="I17">
-        <v>0.3882176589113591</v>
+        <v>1.301760463511203</v>
       </c>
       <c r="J17">
-        <v>2.365586420041832</v>
+        <v>1.590628985224071</v>
       </c>
       <c r="K17">
-        <v>2.2218428159414</v>
+        <v>1.599687208867323</v>
       </c>
       <c r="L17">
-        <v>0.4162001028188966</v>
+        <v>0.7317998617811439</v>
       </c>
       <c r="M17">
-        <v>3.046790438477108</v>
+        <v>1.596678326174263</v>
       </c>
       <c r="N17">
-        <v>3.046790438477108</v>
+        <v>1.596678326174263</v>
       </c>
       <c r="O17">
-        <v>2.819722432332016</v>
+        <v>1.594661879190866</v>
       </c>
       <c r="P17">
-        <v>2.771807897631872</v>
+        <v>1.59768128707195</v>
       </c>
       <c r="Q17">
-        <v>2.771807897631872</v>
+        <v>1.59768128707195</v>
       </c>
       <c r="R17">
-        <v>2.634316627209254</v>
+        <v>1.598182767520793</v>
       </c>
       <c r="S17">
-        <v>2.634316627209254</v>
+        <v>1.598182767520793</v>
       </c>
       <c r="T17">
-        <v>1.914069114385682</v>
+        <v>1.437314501295495</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8876394559400272</v>
+        <v>2.135714840676817</v>
       </c>
       <c r="D18">
-        <v>4.093475670672387</v>
+        <v>4.994829886741192</v>
       </c>
       <c r="E18">
-        <v>0.8371733595696502</v>
+        <v>1.433290639501299</v>
       </c>
       <c r="F18">
-        <v>4.093475670672387</v>
+        <v>4.994829886741192</v>
       </c>
       <c r="G18">
-        <v>0.8282216942981616</v>
+        <v>0.4048621348257982</v>
       </c>
       <c r="H18">
-        <v>0.8876394559400272</v>
+        <v>2.135714840676817</v>
       </c>
       <c r="I18">
-        <v>0.7844655611435071</v>
+        <v>0.3159496236936327</v>
       </c>
       <c r="J18">
-        <v>1.123507760917852</v>
+        <v>2.08036688856496</v>
       </c>
       <c r="K18">
-        <v>0.8876394559400272</v>
+        <v>2.135714840676817</v>
       </c>
       <c r="L18">
-        <v>0.8371733595696502</v>
+        <v>1.433290639501299</v>
       </c>
       <c r="M18">
-        <v>2.465324515121019</v>
+        <v>3.214060263121245</v>
       </c>
       <c r="N18">
-        <v>2.465324515121019</v>
+        <v>3.214060263121245</v>
       </c>
       <c r="O18">
-        <v>2.018052263719963</v>
+        <v>2.836162471602484</v>
       </c>
       <c r="P18">
-        <v>1.939429495394021</v>
+        <v>2.854611788973102</v>
       </c>
       <c r="Q18">
-        <v>1.939429495394021</v>
+        <v>2.854611788973102</v>
       </c>
       <c r="R18">
-        <v>1.676481985530523</v>
+        <v>2.674887551899031</v>
       </c>
       <c r="S18">
-        <v>1.676481985530523</v>
+        <v>2.674887551899031</v>
       </c>
       <c r="T18">
-        <v>1.425747250423598</v>
+        <v>1.89416900233395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9694486786619403</v>
+        <v>1.003122250366925</v>
       </c>
       <c r="D19">
-        <v>5.538705283933833</v>
+        <v>1.051284342888698</v>
       </c>
       <c r="E19">
-        <v>0.646510919959486</v>
+        <v>0.9982500153703996</v>
       </c>
       <c r="F19">
-        <v>5.538705283933833</v>
+        <v>1.051284342888698</v>
       </c>
       <c r="G19">
-        <v>0.807231532814811</v>
+        <v>0.9982847086394048</v>
       </c>
       <c r="H19">
-        <v>0.9694486786619403</v>
+        <v>1.003122250366925</v>
       </c>
       <c r="I19">
-        <v>1.274822473673664</v>
+        <v>0.9985465884712559</v>
       </c>
       <c r="J19">
-        <v>1.029091419237669</v>
+        <v>0.9988325556293631</v>
       </c>
       <c r="K19">
-        <v>0.9694486786619403</v>
+        <v>1.003122250366925</v>
       </c>
       <c r="L19">
-        <v>0.646510919959486</v>
+        <v>0.9982500153703996</v>
       </c>
       <c r="M19">
-        <v>3.092608101946659</v>
+        <v>1.024767179129549</v>
       </c>
       <c r="N19">
-        <v>3.092608101946659</v>
+        <v>1.024767179129549</v>
       </c>
       <c r="O19">
-        <v>2.404769207710329</v>
+        <v>1.016122304629487</v>
       </c>
       <c r="P19">
-        <v>2.384888294185087</v>
+        <v>1.017552202875341</v>
       </c>
       <c r="Q19">
-        <v>2.384888294185087</v>
+        <v>1.017552202875341</v>
       </c>
       <c r="R19">
-        <v>2.0310283903043</v>
+        <v>1.013944714748237</v>
       </c>
       <c r="S19">
-        <v>2.0310283903043</v>
+        <v>1.013944714748237</v>
       </c>
       <c r="T19">
-        <v>1.710968384713567</v>
+        <v>1.008053410227675</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001881522214345</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="D20">
-        <v>1.006170774587693</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="E20">
-        <v>1.001488506621857</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="F20">
-        <v>1.006170774587693</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="G20">
-        <v>1.000498040550281</v>
+        <v>0.9942596572730843</v>
       </c>
       <c r="H20">
-        <v>1.001881522214345</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="I20">
-        <v>1.003285536976801</v>
+        <v>0.9862242328718512</v>
       </c>
       <c r="J20">
-        <v>1.002720050112524</v>
+        <v>0.9984840724777749</v>
       </c>
       <c r="K20">
-        <v>1.001881522214345</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="L20">
-        <v>1.001488506621857</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="M20">
-        <v>1.003829640604775</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="N20">
-        <v>1.003829640604775</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="O20">
-        <v>1.003459777107358</v>
+        <v>1.037495839737358</v>
       </c>
       <c r="P20">
-        <v>1.003180267807965</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="Q20">
-        <v>1.003180267807965</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="R20">
-        <v>1.00285558140956</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="S20">
-        <v>1.00285558140956</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="T20">
-        <v>1.002674071843917</v>
+        <v>1.017825403810781</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9762798381416552</v>
+        <v>1.060035765223649</v>
       </c>
       <c r="D21">
-        <v>1.091507354589469</v>
+        <v>1.173412689887706</v>
       </c>
       <c r="E21">
-        <v>0.9987341754763509</v>
+        <v>0.9927276100201204</v>
       </c>
       <c r="F21">
-        <v>1.091507354589469</v>
+        <v>1.173412689887706</v>
       </c>
       <c r="G21">
-        <v>0.9978092532541321</v>
+        <v>0.9959869117992199</v>
       </c>
       <c r="H21">
-        <v>0.9762798381416552</v>
+        <v>1.060035765223649</v>
       </c>
       <c r="I21">
-        <v>1.011457940080151</v>
+        <v>0.987451634747159</v>
       </c>
       <c r="J21">
-        <v>0.9854927788769757</v>
+        <v>0.9971293850531368</v>
       </c>
       <c r="K21">
-        <v>0.9762798381416552</v>
+        <v>1.060035765223649</v>
       </c>
       <c r="L21">
-        <v>0.9987341754763509</v>
+        <v>0.9927276100201204</v>
       </c>
       <c r="M21">
-        <v>1.04512076503291</v>
+        <v>1.083070149953913</v>
       </c>
       <c r="N21">
-        <v>1.04512076503291</v>
+        <v>1.083070149953913</v>
       </c>
       <c r="O21">
-        <v>1.025244769647599</v>
+        <v>1.054423228320321</v>
       </c>
       <c r="P21">
-        <v>1.022173789402492</v>
+        <v>1.075392021710492</v>
       </c>
       <c r="Q21">
-        <v>1.022173789402492</v>
+        <v>1.075392021710492</v>
       </c>
       <c r="R21">
-        <v>1.010700301587283</v>
+        <v>1.071552957588781</v>
       </c>
       <c r="S21">
-        <v>1.010700301587283</v>
+        <v>1.071552957588781</v>
       </c>
       <c r="T21">
-        <v>1.010213556736456</v>
+        <v>1.034457332788499</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.131291128779575</v>
+        <v>1.074045809862915</v>
       </c>
       <c r="D22">
-        <v>0.9269954628377165</v>
+        <v>1.303562166592332</v>
       </c>
       <c r="E22">
-        <v>1.005734921244428</v>
+        <v>0.9949440990187354</v>
       </c>
       <c r="F22">
-        <v>0.9269954628377165</v>
+        <v>1.303562166592332</v>
       </c>
       <c r="G22">
-        <v>0.9840609961546802</v>
+        <v>0.9929639670863716</v>
       </c>
       <c r="H22">
-        <v>1.131291128779575</v>
+        <v>1.074045809862915</v>
       </c>
       <c r="I22">
-        <v>1.035922430228931</v>
+        <v>0.9775314641206497</v>
       </c>
       <c r="J22">
-        <v>1.095615118260849</v>
+        <v>0.9950774256699426</v>
       </c>
       <c r="K22">
-        <v>1.131291128779575</v>
+        <v>1.074045809862915</v>
       </c>
       <c r="L22">
-        <v>1.005734921244428</v>
+        <v>0.9949440990187354</v>
       </c>
       <c r="M22">
-        <v>0.9663651920410725</v>
+        <v>1.149253132805534</v>
       </c>
       <c r="N22">
-        <v>0.9663651920410725</v>
+        <v>1.149253132805534</v>
       </c>
       <c r="O22">
-        <v>1.009448500780998</v>
+        <v>1.097861230427003</v>
       </c>
       <c r="P22">
-        <v>1.02134050428724</v>
+        <v>1.124184025157994</v>
       </c>
       <c r="Q22">
-        <v>1.02134050428724</v>
+        <v>1.124184025157994</v>
       </c>
       <c r="R22">
-        <v>1.048828160410324</v>
+        <v>1.111649471334224</v>
       </c>
       <c r="S22">
-        <v>1.048828160410324</v>
+        <v>1.111649471334224</v>
       </c>
       <c r="T22">
-        <v>1.02993667625103</v>
+        <v>1.056354155391824</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.367033613584427</v>
+      </c>
+      <c r="D23">
+        <v>1.701875609980358</v>
+      </c>
+      <c r="E23">
+        <v>0.958758153822871</v>
+      </c>
+      <c r="F23">
+        <v>1.701875609980358</v>
+      </c>
+      <c r="G23">
+        <v>0.9587522763341066</v>
+      </c>
+      <c r="H23">
+        <v>1.367033613584427</v>
+      </c>
+      <c r="I23">
+        <v>1.145335557488477</v>
+      </c>
+      <c r="J23">
+        <v>0.9975857546836984</v>
+      </c>
+      <c r="K23">
+        <v>1.367033613584427</v>
+      </c>
+      <c r="L23">
+        <v>0.958758153822871</v>
+      </c>
+      <c r="M23">
+        <v>1.330316881901615</v>
+      </c>
+      <c r="N23">
+        <v>1.330316881901615</v>
+      </c>
+      <c r="O23">
+        <v>1.219406506162309</v>
+      </c>
+      <c r="P23">
+        <v>1.342555792462552</v>
+      </c>
+      <c r="Q23">
+        <v>1.342555792462552</v>
+      </c>
+      <c r="R23">
+        <v>1.348675247743021</v>
+      </c>
+      <c r="S23">
+        <v>1.348675247743021</v>
+      </c>
+      <c r="T23">
+        <v>1.188223494315656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="D24">
+        <v>0.001195947493241166</v>
+      </c>
+      <c r="E24">
+        <v>0.03001048724434658</v>
+      </c>
+      <c r="F24">
+        <v>0.001195947493241166</v>
+      </c>
+      <c r="G24">
+        <v>1.36929409942775</v>
+      </c>
+      <c r="H24">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="I24">
+        <v>0.0003904390819234766</v>
+      </c>
+      <c r="J24">
+        <v>1.123143795900909</v>
+      </c>
+      <c r="K24">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="L24">
+        <v>0.03001048724434658</v>
+      </c>
+      <c r="M24">
+        <v>0.01560321736879387</v>
+      </c>
+      <c r="N24">
+        <v>0.01560321736879387</v>
+      </c>
+      <c r="O24">
+        <v>0.3847834102128324</v>
+      </c>
+      <c r="P24">
+        <v>1.288863037026936</v>
+      </c>
+      <c r="Q24">
+        <v>1.288863037026936</v>
+      </c>
+      <c r="R24">
+        <v>1.925492946856006</v>
+      </c>
+      <c r="S24">
+        <v>1.925492946856006</v>
+      </c>
+      <c r="T24">
+        <v>1.059902907581898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="D25">
+        <v>0.4867331853026466</v>
+      </c>
+      <c r="E25">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="F25">
+        <v>0.4867331853026466</v>
+      </c>
+      <c r="G25">
+        <v>1.06817823289402</v>
+      </c>
+      <c r="H25">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="I25">
+        <v>0.3335060775395671</v>
+      </c>
+      <c r="J25">
+        <v>0.2004275526633824</v>
+      </c>
+      <c r="K25">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="L25">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="M25">
+        <v>1.294961268689134</v>
+      </c>
+      <c r="N25">
+        <v>1.294961268689134</v>
+      </c>
+      <c r="O25">
+        <v>0.9301166966805502</v>
+      </c>
+      <c r="P25">
+        <v>0.8653883877665808</v>
+      </c>
+      <c r="Q25">
+        <v>0.8653883877665808</v>
+      </c>
+      <c r="R25">
+        <v>0.6506019473053041</v>
+      </c>
+      <c r="S25">
+        <v>0.6506019473053041</v>
+      </c>
+      <c r="T25">
+        <v>0.6997128377327853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="D26">
+        <v>0.001328490848514552</v>
+      </c>
+      <c r="E26">
+        <v>0.3632148420855519</v>
+      </c>
+      <c r="F26">
+        <v>0.001328490848514552</v>
+      </c>
+      <c r="G26">
+        <v>2.111746370789562</v>
+      </c>
+      <c r="H26">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="I26">
+        <v>1.379937255016046</v>
+      </c>
+      <c r="J26">
+        <v>0.04684934235621927</v>
+      </c>
+      <c r="K26">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="L26">
+        <v>0.3632148420855519</v>
+      </c>
+      <c r="M26">
+        <v>0.1822716664670332</v>
+      </c>
+      <c r="N26">
+        <v>0.1822716664670332</v>
+      </c>
+      <c r="O26">
+        <v>0.1371308917634286</v>
+      </c>
+      <c r="P26">
+        <v>0.1222603097726636</v>
+      </c>
+      <c r="Q26">
+        <v>0.1222603097726636</v>
+      </c>
+      <c r="R26">
+        <v>0.09225463142547877</v>
+      </c>
+      <c r="S26">
+        <v>0.09225463142547877</v>
+      </c>
+      <c r="T26">
+        <v>0.6508856495799696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="D27">
+        <v>0.4869577846943858</v>
+      </c>
+      <c r="E27">
+        <v>0.4028156866737077</v>
+      </c>
+      <c r="F27">
+        <v>0.4869577846943858</v>
+      </c>
+      <c r="G27">
+        <v>0.6766963675953208</v>
+      </c>
+      <c r="H27">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="I27">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="J27">
+        <v>2.017995838561733</v>
+      </c>
+      <c r="K27">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="L27">
+        <v>0.4028156866737077</v>
+      </c>
+      <c r="M27">
+        <v>0.4448867356840467</v>
+      </c>
+      <c r="N27">
+        <v>0.4448867356840467</v>
+      </c>
+      <c r="O27">
+        <v>0.9692564366432754</v>
+      </c>
+      <c r="P27">
+        <v>1.08312839003031</v>
+      </c>
+      <c r="Q27">
+        <v>1.08312839003031</v>
+      </c>
+      <c r="R27">
+        <v>1.402249217203441</v>
+      </c>
+      <c r="S27">
+        <v>1.402249217203441</v>
+      </c>
+      <c r="T27">
+        <v>1.220149389235383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.906690014384095</v>
+      </c>
+      <c r="D28">
+        <v>6.419645182021565</v>
+      </c>
+      <c r="E28">
+        <v>0.2088897251936642</v>
+      </c>
+      <c r="F28">
+        <v>6.419645182021565</v>
+      </c>
+      <c r="G28">
+        <v>0.2104639068306447</v>
+      </c>
+      <c r="H28">
+        <v>2.906690014384095</v>
+      </c>
+      <c r="I28">
+        <v>0.1936876909923848</v>
+      </c>
+      <c r="J28">
+        <v>2.981340790044134</v>
+      </c>
+      <c r="K28">
+        <v>2.906690014384095</v>
+      </c>
+      <c r="L28">
+        <v>0.2088897251936642</v>
+      </c>
+      <c r="M28">
+        <v>3.314267453607615</v>
+      </c>
+      <c r="N28">
+        <v>3.314267453607615</v>
+      </c>
+      <c r="O28">
+        <v>3.203291899086455</v>
+      </c>
+      <c r="P28">
+        <v>3.178408307199775</v>
+      </c>
+      <c r="Q28">
+        <v>3.178408307199775</v>
+      </c>
+      <c r="R28">
+        <v>3.110478733995855</v>
+      </c>
+      <c r="S28">
+        <v>3.110478733995855</v>
+      </c>
+      <c r="T28">
+        <v>2.153452884911081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.2218428159414</v>
+      </c>
+      <c r="D29">
+        <v>5.67738077413532</v>
+      </c>
+      <c r="E29">
+        <v>0.4162001028188966</v>
+      </c>
+      <c r="F29">
+        <v>5.67738077413532</v>
+      </c>
+      <c r="G29">
+        <v>0.4151869144652852</v>
+      </c>
+      <c r="H29">
+        <v>2.2218428159414</v>
+      </c>
+      <c r="I29">
+        <v>0.3882176589113591</v>
+      </c>
+      <c r="J29">
+        <v>2.365586420041832</v>
+      </c>
+      <c r="K29">
+        <v>2.2218428159414</v>
+      </c>
+      <c r="L29">
+        <v>0.4162001028188966</v>
+      </c>
+      <c r="M29">
+        <v>3.046790438477108</v>
+      </c>
+      <c r="N29">
+        <v>3.046790438477108</v>
+      </c>
+      <c r="O29">
+        <v>2.819722432332016</v>
+      </c>
+      <c r="P29">
+        <v>2.771807897631872</v>
+      </c>
+      <c r="Q29">
+        <v>2.771807897631872</v>
+      </c>
+      <c r="R29">
+        <v>2.634316627209254</v>
+      </c>
+      <c r="S29">
+        <v>2.634316627209254</v>
+      </c>
+      <c r="T29">
+        <v>1.914069114385682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8876394559400272</v>
+      </c>
+      <c r="D30">
+        <v>4.093475670672387</v>
+      </c>
+      <c r="E30">
+        <v>0.8371733595696502</v>
+      </c>
+      <c r="F30">
+        <v>4.093475670672387</v>
+      </c>
+      <c r="G30">
+        <v>0.8282216942981616</v>
+      </c>
+      <c r="H30">
+        <v>0.8876394559400272</v>
+      </c>
+      <c r="I30">
+        <v>0.7844655611435071</v>
+      </c>
+      <c r="J30">
+        <v>1.123507760917852</v>
+      </c>
+      <c r="K30">
+        <v>0.8876394559400272</v>
+      </c>
+      <c r="L30">
+        <v>0.8371733595696502</v>
+      </c>
+      <c r="M30">
+        <v>2.465324515121019</v>
+      </c>
+      <c r="N30">
+        <v>2.465324515121019</v>
+      </c>
+      <c r="O30">
+        <v>2.018052263719963</v>
+      </c>
+      <c r="P30">
+        <v>1.939429495394021</v>
+      </c>
+      <c r="Q30">
+        <v>1.939429495394021</v>
+      </c>
+      <c r="R30">
+        <v>1.676481985530523</v>
+      </c>
+      <c r="S30">
+        <v>1.676481985530523</v>
+      </c>
+      <c r="T30">
+        <v>1.425747250423598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="D31">
+        <v>5.538705283933833</v>
+      </c>
+      <c r="E31">
+        <v>0.646510919959486</v>
+      </c>
+      <c r="F31">
+        <v>5.538705283933833</v>
+      </c>
+      <c r="G31">
+        <v>0.807231532814811</v>
+      </c>
+      <c r="H31">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="I31">
+        <v>1.274822473673664</v>
+      </c>
+      <c r="J31">
+        <v>1.029091419237669</v>
+      </c>
+      <c r="K31">
+        <v>0.9694486786619403</v>
+      </c>
+      <c r="L31">
+        <v>0.646510919959486</v>
+      </c>
+      <c r="M31">
+        <v>3.092608101946659</v>
+      </c>
+      <c r="N31">
+        <v>3.092608101946659</v>
+      </c>
+      <c r="O31">
+        <v>2.404769207710329</v>
+      </c>
+      <c r="P31">
+        <v>2.384888294185087</v>
+      </c>
+      <c r="Q31">
+        <v>2.384888294185087</v>
+      </c>
+      <c r="R31">
+        <v>2.0310283903043</v>
+      </c>
+      <c r="S31">
+        <v>2.0310283903043</v>
+      </c>
+      <c r="T31">
+        <v>1.710968384713567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.963141981831235</v>
+      </c>
+      <c r="D32">
+        <v>7.094827137778083</v>
+      </c>
+      <c r="E32">
+        <v>0.001043307932054795</v>
+      </c>
+      <c r="F32">
+        <v>7.094827137778083</v>
+      </c>
+      <c r="G32">
+        <v>0.005240501350136984</v>
+      </c>
+      <c r="H32">
+        <v>3.963141981831235</v>
+      </c>
+      <c r="I32">
+        <v>-0.001298166143835616</v>
+      </c>
+      <c r="J32">
+        <v>3.54653049980411</v>
+      </c>
+      <c r="K32">
+        <v>3.963141981831235</v>
+      </c>
+      <c r="L32">
+        <v>0.001043307932054795</v>
+      </c>
+      <c r="M32">
+        <v>3.547935222855069</v>
+      </c>
+      <c r="N32">
+        <v>3.547935222855069</v>
+      </c>
+      <c r="O32">
+        <v>3.547466981838082</v>
+      </c>
+      <c r="P32">
+        <v>3.686337475847124</v>
+      </c>
+      <c r="Q32">
+        <v>3.686337475847124</v>
+      </c>
+      <c r="R32">
+        <v>3.755538602343152</v>
+      </c>
+      <c r="S32">
+        <v>3.755538602343152</v>
+      </c>
+      <c r="T32">
+        <v>2.434914210425297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="D33">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="E33">
+        <v>1.70506817231</v>
+      </c>
+      <c r="F33">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="G33">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="H33">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="I33">
+        <v>5.109614947677896</v>
+      </c>
+      <c r="J33">
+        <v>0.03246660507421052</v>
+      </c>
+      <c r="K33">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="L33">
+        <v>1.70506817231</v>
+      </c>
+      <c r="M33">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="N33">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="O33">
+        <v>2.247832738373685</v>
+      </c>
+      <c r="P33">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="Q33">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="R33">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="S33">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="T33">
+        <v>2.41402164764079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="D34">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="E34">
+        <v>1.70506817231</v>
+      </c>
+      <c r="F34">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="G34">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="H34">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="I34">
+        <v>5.109614947677896</v>
+      </c>
+      <c r="J34">
+        <v>0.03246660507421052</v>
+      </c>
+      <c r="K34">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="L34">
+        <v>1.70506817231</v>
+      </c>
+      <c r="M34">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="N34">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="O34">
+        <v>2.247832738373685</v>
+      </c>
+      <c r="P34">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="Q34">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="R34">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="S34">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="T34">
+        <v>2.41402164764079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4094961863676275</v>
+      </c>
+      <c r="D35">
+        <v>32.3893652463791</v>
+      </c>
+      <c r="E35">
+        <v>0.4160686587720799</v>
+      </c>
+      <c r="F35">
+        <v>32.3893652463791</v>
+      </c>
+      <c r="G35">
+        <v>0.4133648537037015</v>
+      </c>
+      <c r="H35">
+        <v>0.4094961863676275</v>
+      </c>
+      <c r="I35">
+        <v>0.393944439210172</v>
+      </c>
+      <c r="J35">
+        <v>0.5718915571011643</v>
+      </c>
+      <c r="K35">
+        <v>0.4094961863676275</v>
+      </c>
+      <c r="L35">
+        <v>0.4160686587720799</v>
+      </c>
+      <c r="M35">
+        <v>16.40271695257559</v>
+      </c>
+      <c r="N35">
+        <v>16.40271695257559</v>
+      </c>
+      <c r="O35">
+        <v>11.12577515408412</v>
+      </c>
+      <c r="P35">
+        <v>11.0716433638396</v>
+      </c>
+      <c r="Q35">
+        <v>11.0716433638396</v>
+      </c>
+      <c r="R35">
+        <v>8.406106569471609</v>
+      </c>
+      <c r="S35">
+        <v>8.406106569471609</v>
+      </c>
+      <c r="T35">
+        <v>5.765688490255642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="D36">
+        <v>1.006170774587693</v>
+      </c>
+      <c r="E36">
+        <v>1.001488506621857</v>
+      </c>
+      <c r="F36">
+        <v>1.006170774587693</v>
+      </c>
+      <c r="G36">
+        <v>1.000498040550281</v>
+      </c>
+      <c r="H36">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="I36">
+        <v>1.003285536976801</v>
+      </c>
+      <c r="J36">
+        <v>1.002720050112524</v>
+      </c>
+      <c r="K36">
+        <v>1.001881522214345</v>
+      </c>
+      <c r="L36">
+        <v>1.001488506621857</v>
+      </c>
+      <c r="M36">
+        <v>1.003829640604775</v>
+      </c>
+      <c r="N36">
+        <v>1.003829640604775</v>
+      </c>
+      <c r="O36">
+        <v>1.003459777107358</v>
+      </c>
+      <c r="P36">
+        <v>1.003180267807965</v>
+      </c>
+      <c r="Q36">
+        <v>1.003180267807965</v>
+      </c>
+      <c r="R36">
+        <v>1.00285558140956</v>
+      </c>
+      <c r="S36">
+        <v>1.00285558140956</v>
+      </c>
+      <c r="T36">
+        <v>1.002674071843917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="D37">
+        <v>1.091507354589469</v>
+      </c>
+      <c r="E37">
+        <v>0.9987341754763509</v>
+      </c>
+      <c r="F37">
+        <v>1.091507354589469</v>
+      </c>
+      <c r="G37">
+        <v>0.9978092532541321</v>
+      </c>
+      <c r="H37">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="I37">
+        <v>1.011457940080151</v>
+      </c>
+      <c r="J37">
+        <v>0.9854927788769757</v>
+      </c>
+      <c r="K37">
+        <v>0.9762798381416552</v>
+      </c>
+      <c r="L37">
+        <v>0.9987341754763509</v>
+      </c>
+      <c r="M37">
+        <v>1.04512076503291</v>
+      </c>
+      <c r="N37">
+        <v>1.04512076503291</v>
+      </c>
+      <c r="O37">
+        <v>1.025244769647599</v>
+      </c>
+      <c r="P37">
+        <v>1.022173789402492</v>
+      </c>
+      <c r="Q37">
+        <v>1.022173789402492</v>
+      </c>
+      <c r="R37">
+        <v>1.010700301587283</v>
+      </c>
+      <c r="S37">
+        <v>1.010700301587283</v>
+      </c>
+      <c r="T37">
+        <v>1.010213556736456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="D38">
+        <v>0.9269954628377165</v>
+      </c>
+      <c r="E38">
+        <v>1.005734921244428</v>
+      </c>
+      <c r="F38">
+        <v>0.9269954628377165</v>
+      </c>
+      <c r="G38">
+        <v>0.9840609961546802</v>
+      </c>
+      <c r="H38">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="I38">
+        <v>1.035922430228931</v>
+      </c>
+      <c r="J38">
+        <v>1.095615118260849</v>
+      </c>
+      <c r="K38">
+        <v>1.131291128779575</v>
+      </c>
+      <c r="L38">
+        <v>1.005734921244428</v>
+      </c>
+      <c r="M38">
+        <v>0.9663651920410725</v>
+      </c>
+      <c r="N38">
+        <v>0.9663651920410725</v>
+      </c>
+      <c r="O38">
+        <v>1.009448500780998</v>
+      </c>
+      <c r="P38">
+        <v>1.02134050428724</v>
+      </c>
+      <c r="Q38">
+        <v>1.02134050428724</v>
+      </c>
+      <c r="R38">
+        <v>1.048828160410324</v>
+      </c>
+      <c r="S38">
+        <v>1.048828160410324</v>
+      </c>
+      <c r="T38">
+        <v>1.02993667625103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.059589806164968</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.579391214274182</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.7994651389368337</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.579391214274182</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.049196621869387</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.059589806164968</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.172517872298847</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.124071295691524</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.059589806164968</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.7994651389368337</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.189428176605508</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.189428176605508</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.16764254963418</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.146148719791995</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.146148719791995</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.124508991385238</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.124508991385238</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.130705324872624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.891328764777978</v>
+      </c>
+      <c r="D40">
+        <v>0.8941524586969465</v>
+      </c>
+      <c r="E40">
+        <v>0.905588116630975</v>
+      </c>
+      <c r="F40">
+        <v>0.8941524586969465</v>
+      </c>
+      <c r="G40">
+        <v>0.9522171515412305</v>
+      </c>
+      <c r="H40">
+        <v>1.891328764777978</v>
+      </c>
+      <c r="I40">
+        <v>0.982972773672941</v>
+      </c>
+      <c r="J40">
+        <v>0.8478895805075322</v>
+      </c>
+      <c r="K40">
+        <v>1.891328764777978</v>
+      </c>
+      <c r="L40">
+        <v>0.905588116630975</v>
+      </c>
+      <c r="M40">
+        <v>0.8998702876639608</v>
+      </c>
+      <c r="N40">
+        <v>0.8998702876639608</v>
+      </c>
+      <c r="O40">
+        <v>0.8825433852784846</v>
+      </c>
+      <c r="P40">
+        <v>1.230356446701967</v>
+      </c>
+      <c r="Q40">
+        <v>1.230356446701967</v>
+      </c>
+      <c r="R40">
+        <v>1.395599526220969</v>
+      </c>
+      <c r="S40">
+        <v>1.395599526220969</v>
+      </c>
+      <c r="T40">
+        <v>1.079024807637934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.223386091752235</v>
+      </c>
+      <c r="D41">
+        <v>0.960746381405309</v>
+      </c>
+      <c r="E41">
+        <v>1.063442852456454</v>
+      </c>
+      <c r="F41">
+        <v>0.960746381405309</v>
+      </c>
+      <c r="G41">
+        <v>1.06853211276066</v>
+      </c>
+      <c r="H41">
+        <v>1.223386091752235</v>
+      </c>
+      <c r="I41">
+        <v>0.7599006988893957</v>
+      </c>
+      <c r="J41">
+        <v>0.9597099951542338</v>
+      </c>
+      <c r="K41">
+        <v>1.223386091752235</v>
+      </c>
+      <c r="L41">
+        <v>1.063442852456454</v>
+      </c>
+      <c r="M41">
+        <v>1.012094616930882</v>
+      </c>
+      <c r="N41">
+        <v>1.012094616930882</v>
+      </c>
+      <c r="O41">
+        <v>0.9946330763386658</v>
+      </c>
+      <c r="P41">
+        <v>1.082525108537999</v>
+      </c>
+      <c r="Q41">
+        <v>1.082525108537999</v>
+      </c>
+      <c r="R41">
+        <v>1.117740354341558</v>
+      </c>
+      <c r="S41">
+        <v>1.117740354341558</v>
+      </c>
+      <c r="T41">
+        <v>1.005953022069715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.603242479263883</v>
+      </c>
+      <c r="D42">
+        <v>1.674858386758117</v>
+      </c>
+      <c r="E42">
+        <v>0.5811094029459321</v>
+      </c>
+      <c r="F42">
+        <v>1.674858386758117</v>
+      </c>
+      <c r="G42">
+        <v>0.5077247091553622</v>
+      </c>
+      <c r="H42">
+        <v>1.603242479263883</v>
+      </c>
+      <c r="I42">
+        <v>0.2946655021662706</v>
+      </c>
+      <c r="J42">
+        <v>1.656804399002491</v>
+      </c>
+      <c r="K42">
+        <v>1.603242479263883</v>
+      </c>
+      <c r="L42">
+        <v>0.5811094029459321</v>
+      </c>
+      <c r="M42">
+        <v>1.127983894852025</v>
+      </c>
+      <c r="N42">
+        <v>1.127983894852025</v>
+      </c>
+      <c r="O42">
+        <v>1.304257396235514</v>
+      </c>
+      <c r="P42">
+        <v>1.286403422989311</v>
+      </c>
+      <c r="Q42">
+        <v>1.286403422989311</v>
+      </c>
+      <c r="R42">
+        <v>1.365613187057954</v>
+      </c>
+      <c r="S42">
+        <v>1.365613187057954</v>
+      </c>
+      <c r="T42">
+        <v>1.053067479882009</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.124906807696364</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="D3">
-        <v>1.310308247865847</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="E3">
-        <v>0.9577993538742211</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="F3">
-        <v>1.124906807696364</v>
+        <v>1.117498292213462</v>
       </c>
       <c r="G3">
-        <v>0.9524967299971038</v>
+        <v>0.9942596572730843</v>
       </c>
       <c r="H3">
-        <v>1.109003055051344</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="I3">
-        <v>0.951613210681366</v>
+        <v>0.9862242328718512</v>
       </c>
       <c r="J3">
-        <v>1.310308247865847</v>
+        <v>0.9984840724777749</v>
       </c>
       <c r="K3">
-        <v>1.124906807696364</v>
+        <v>1.01398101350768</v>
       </c>
       <c r="L3">
-        <v>0.9577993538742211</v>
+        <v>0.9965051545208358</v>
       </c>
       <c r="M3">
-        <v>1.134053800870034</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="N3">
-        <v>1.134053800870034</v>
+        <v>1.057001723367149</v>
       </c>
       <c r="O3">
-        <v>1.125703552263804</v>
+        <v>1.037495839737358</v>
       </c>
       <c r="P3">
-        <v>1.131004803145478</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="Q3">
-        <v>1.131004803145478</v>
+        <v>1.042661486747326</v>
       </c>
       <c r="R3">
-        <v>1.129480304283199</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="S3">
-        <v>1.129480304283199</v>
+        <v>1.035491368437415</v>
       </c>
       <c r="T3">
-        <v>1.067687900861041</v>
+        <v>1.017825403810781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.195481071040531</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="D4">
-        <v>1.668569767063155</v>
+        <v>0.8941524586969465</v>
       </c>
       <c r="E4">
-        <v>0.9667862831996308</v>
+        <v>0.905588116630975</v>
       </c>
       <c r="F4">
-        <v>1.195481071040531</v>
+        <v>0.8941524586969465</v>
       </c>
       <c r="G4">
-        <v>0.9803550201303101</v>
+        <v>0.9522171515412305</v>
       </c>
       <c r="H4">
-        <v>1.230830920623486</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="I4">
-        <v>0.907985466566307</v>
+        <v>0.982972773672941</v>
       </c>
       <c r="J4">
-        <v>1.668569767063155</v>
+        <v>0.8478895805075322</v>
       </c>
       <c r="K4">
-        <v>1.195481071040531</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="L4">
-        <v>0.9667862831996308</v>
+        <v>0.905588116630975</v>
       </c>
       <c r="M4">
-        <v>1.317678025131393</v>
+        <v>0.8998702876639608</v>
       </c>
       <c r="N4">
-        <v>1.317678025131393</v>
+        <v>0.8998702876639608</v>
       </c>
       <c r="O4">
-        <v>1.288728990295424</v>
+        <v>0.8825433852784846</v>
       </c>
       <c r="P4">
-        <v>1.276945707101106</v>
+        <v>1.230356446701967</v>
       </c>
       <c r="Q4">
-        <v>1.276945707101106</v>
+        <v>1.230356446701967</v>
       </c>
       <c r="R4">
-        <v>1.256579548085962</v>
+        <v>1.395599526220969</v>
       </c>
       <c r="S4">
-        <v>1.256579548085962</v>
+        <v>1.395599526220969</v>
       </c>
       <c r="T4">
-        <v>1.15833475477057</v>
+        <v>1.079024807637934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.599687208867323</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="D5">
-        <v>2.461556790567383</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="E5">
-        <v>0.7317998617811439</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="F5">
-        <v>1.599687208867323</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="G5">
-        <v>1.301760463511203</v>
+        <v>0.7774461182201344</v>
       </c>
       <c r="H5">
-        <v>1.590628985224071</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="I5">
-        <v>0.9384536978218471</v>
+        <v>0.8011928128044317</v>
       </c>
       <c r="J5">
-        <v>2.461556790567383</v>
+        <v>1.148798363815448</v>
       </c>
       <c r="K5">
-        <v>1.599687208867323</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="L5">
-        <v>0.7317998617811439</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="M5">
-        <v>1.596678326174263</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="N5">
-        <v>1.596678326174263</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="O5">
-        <v>1.594661879190866</v>
+        <v>2.52767190847643</v>
       </c>
       <c r="P5">
-        <v>1.59768128707195</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="Q5">
-        <v>1.59768128707195</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="R5">
-        <v>1.598182767520794</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="S5">
-        <v>1.598182767520794</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="T5">
-        <v>1.437314501295495</v>
+        <v>1.675260246065919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.135714840676817</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="D6">
-        <v>4.994829886741191</v>
+        <v>32.3893652463791</v>
       </c>
       <c r="E6">
-        <v>1.433290639501299</v>
+        <v>0.4160686587720799</v>
       </c>
       <c r="F6">
-        <v>2.135714840676817</v>
+        <v>32.3893652463791</v>
       </c>
       <c r="G6">
-        <v>0.3159496236936327</v>
+        <v>0.4133648537037015</v>
       </c>
       <c r="H6">
-        <v>2.08036688856496</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="I6">
-        <v>0.4048621348257982</v>
+        <v>0.393944439210172</v>
       </c>
       <c r="J6">
-        <v>4.994829886741191</v>
+        <v>0.5718915571011643</v>
       </c>
       <c r="K6">
-        <v>2.135714840676817</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="L6">
-        <v>1.433290639501299</v>
+        <v>0.4160686587720799</v>
       </c>
       <c r="M6">
-        <v>3.214060263121245</v>
+        <v>16.40271695257559</v>
       </c>
       <c r="N6">
-        <v>3.214060263121245</v>
+        <v>16.40271695257559</v>
       </c>
       <c r="O6">
-        <v>2.836162471602483</v>
+        <v>11.12577515408412</v>
       </c>
       <c r="P6">
-        <v>2.854611788973102</v>
+        <v>11.0716433638396</v>
       </c>
       <c r="Q6">
-        <v>2.854611788973102</v>
+        <v>11.0716433638396</v>
       </c>
       <c r="R6">
-        <v>2.674887551899031</v>
+        <v>8.406106569471609</v>
       </c>
       <c r="S6">
-        <v>2.674887551899031</v>
+        <v>8.406106569471609</v>
       </c>
       <c r="T6">
-        <v>1.89416900233395</v>
+        <v>5.765688490255642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003122250366925</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="D7">
-        <v>1.051284342888698</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="E7">
-        <v>0.9982500153704</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="F7">
-        <v>1.003122250366925</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="G7">
-        <v>0.9985465884712557</v>
+        <v>0.9525327865017588</v>
       </c>
       <c r="H7">
-        <v>0.9988325556293619</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="I7">
-        <v>0.9982847086394057</v>
+        <v>0.9563686681649642</v>
       </c>
       <c r="J7">
-        <v>1.051284342888698</v>
+        <v>1.107320505835282</v>
       </c>
       <c r="K7">
-        <v>1.003122250366925</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="L7">
-        <v>0.9982500153704</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="M7">
-        <v>1.024767179129549</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="N7">
-        <v>1.024767179129549</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="O7">
-        <v>1.016122304629487</v>
+        <v>1.116821675515764</v>
       </c>
       <c r="P7">
-        <v>1.017552202875341</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="Q7">
-        <v>1.017552202875341</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="R7">
-        <v>1.013944714748237</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="S7">
-        <v>1.013944714748237</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="T7">
-        <v>1.008053410227675</v>
+        <v>1.060468118258177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.013981013507681</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="D8">
-        <v>1.117498292213453</v>
+        <v>1.091507354589469</v>
       </c>
       <c r="E8">
-        <v>0.9965051545208373</v>
+        <v>0.9987341754763509</v>
       </c>
       <c r="F8">
-        <v>1.013981013507681</v>
+        <v>1.091507354589469</v>
       </c>
       <c r="G8">
-        <v>0.9862242328718517</v>
+        <v>0.9978092532541321</v>
       </c>
       <c r="H8">
-        <v>0.9984840724777748</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="I8">
-        <v>0.9942596572730837</v>
+        <v>1.011457940080151</v>
       </c>
       <c r="J8">
-        <v>1.117498292213453</v>
+        <v>0.9854927788769757</v>
       </c>
       <c r="K8">
-        <v>1.013981013507681</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="L8">
-        <v>0.9965051545208373</v>
+        <v>0.9987341754763509</v>
       </c>
       <c r="M8">
-        <v>1.057001723367145</v>
+        <v>1.04512076503291</v>
       </c>
       <c r="N8">
-        <v>1.057001723367145</v>
+        <v>1.04512076503291</v>
       </c>
       <c r="O8">
-        <v>1.037495839737355</v>
+        <v>1.025244769647599</v>
       </c>
       <c r="P8">
-        <v>1.042661486747324</v>
+        <v>1.022173789402492</v>
       </c>
       <c r="Q8">
-        <v>1.042661486747324</v>
+        <v>1.022173789402492</v>
       </c>
       <c r="R8">
-        <v>1.035491368437413</v>
+        <v>1.010700301587283</v>
       </c>
       <c r="S8">
-        <v>1.035491368437413</v>
+        <v>1.010700301587283</v>
       </c>
       <c r="T8">
-        <v>1.01782540381078</v>
+        <v>1.010213556736456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.060035765223649</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="D9">
-        <v>1.173412689887706</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="E9">
-        <v>0.9927276100201204</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="F9">
-        <v>1.060035765223649</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="G9">
-        <v>0.987451634747159</v>
+        <v>0.907985466566307</v>
       </c>
       <c r="H9">
-        <v>0.997129385053137</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="I9">
-        <v>0.9959869117992202</v>
+        <v>0.9803550201303101</v>
       </c>
       <c r="J9">
-        <v>1.173412689887706</v>
+        <v>1.230830920623486</v>
       </c>
       <c r="K9">
-        <v>1.060035765223649</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="L9">
-        <v>0.9927276100201204</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="M9">
-        <v>1.083070149953913</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="N9">
-        <v>1.083070149953913</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="O9">
-        <v>1.054423228320321</v>
+        <v>1.288728990295424</v>
       </c>
       <c r="P9">
-        <v>1.075392021710492</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="Q9">
-        <v>1.075392021710492</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="R9">
-        <v>1.071552957588781</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="S9">
-        <v>1.071552957588781</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="T9">
-        <v>1.034457332788499</v>
+        <v>1.15833475477057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074045809862915</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="D10">
-        <v>1.303562166592332</v>
+        <v>33.07672866081646</v>
       </c>
       <c r="E10">
-        <v>0.9949440990187354</v>
+        <v>0.3126385902700944</v>
       </c>
       <c r="F10">
-        <v>1.074045809862915</v>
+        <v>33.07672866081646</v>
       </c>
       <c r="G10">
-        <v>0.9775314641206497</v>
+        <v>0.3968061691901516</v>
       </c>
       <c r="H10">
-        <v>0.9950774256699426</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="I10">
-        <v>0.9929639670863716</v>
+        <v>0.5164383979748022</v>
       </c>
       <c r="J10">
-        <v>1.303562166592332</v>
+        <v>0.5274412962690345</v>
       </c>
       <c r="K10">
-        <v>1.074045809862915</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="L10">
-        <v>0.9949440990187354</v>
+        <v>0.3126385902700944</v>
       </c>
       <c r="M10">
-        <v>1.149253132805534</v>
+        <v>16.69468362554328</v>
       </c>
       <c r="N10">
-        <v>1.149253132805534</v>
+        <v>16.69468362554328</v>
       </c>
       <c r="O10">
-        <v>1.097861230427003</v>
+        <v>11.30560284911853</v>
       </c>
       <c r="P10">
-        <v>1.124184025157994</v>
+        <v>11.2811159050713</v>
       </c>
       <c r="Q10">
-        <v>1.124184025157994</v>
+        <v>11.2811159050713</v>
       </c>
       <c r="R10">
-        <v>1.111649471334224</v>
+        <v>8.574332044835311</v>
       </c>
       <c r="S10">
-        <v>1.111649471334224</v>
+        <v>8.574332044835311</v>
       </c>
       <c r="T10">
-        <v>1.056354155391824</v>
+        <v>5.880672263107981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.367033613584426</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="D11">
-        <v>1.701875609980358</v>
+        <v>0.8709306974525001</v>
       </c>
       <c r="E11">
-        <v>0.958758153822871</v>
+        <v>0.9295227330876391</v>
       </c>
       <c r="F11">
-        <v>1.367033613584426</v>
+        <v>0.8709306974525001</v>
       </c>
       <c r="G11">
-        <v>1.145335557488478</v>
+        <v>0.9936519912172567</v>
       </c>
       <c r="H11">
-        <v>0.9975857546836984</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="I11">
-        <v>0.9587522763341064</v>
+        <v>0.4863941763242893</v>
       </c>
       <c r="J11">
-        <v>1.701875609980358</v>
+        <v>0.9347833221653984</v>
       </c>
       <c r="K11">
-        <v>1.367033613584426</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="L11">
-        <v>0.958758153822871</v>
+        <v>0.9295227330876391</v>
       </c>
       <c r="M11">
-        <v>1.330316881901615</v>
+        <v>0.9002267152700696</v>
       </c>
       <c r="N11">
-        <v>1.330316881901615</v>
+        <v>0.9002267152700696</v>
       </c>
       <c r="O11">
-        <v>1.219406506162309</v>
+        <v>0.9117455842351792</v>
       </c>
       <c r="P11">
-        <v>1.342555792462552</v>
+        <v>1.300364632455922</v>
       </c>
       <c r="Q11">
-        <v>1.342555792462552</v>
+        <v>1.300364632455922</v>
       </c>
       <c r="R11">
-        <v>1.348675247743021</v>
+        <v>1.500433591048848</v>
       </c>
       <c r="S11">
-        <v>1.348675247743021</v>
+        <v>1.500433591048848</v>
       </c>
       <c r="T11">
-        <v>1.188223494315656</v>
+        <v>1.052653897845785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.835382676343219</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="D12">
-        <v>0.001195947493241166</v>
+        <v>7.371852759386859</v>
       </c>
       <c r="E12">
-        <v>0.03001048724434658</v>
+        <v>0.6676805236678464</v>
       </c>
       <c r="F12">
-        <v>3.835382676343219</v>
+        <v>7.371852759386859</v>
       </c>
       <c r="G12">
-        <v>0.0003904390819234738</v>
+        <v>0.795987864945722</v>
       </c>
       <c r="H12">
-        <v>1.123143795900912</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="I12">
-        <v>1.36929409942775</v>
+        <v>1.141753731674142</v>
       </c>
       <c r="J12">
-        <v>0.001195947493241166</v>
+        <v>0.9495393097315197</v>
       </c>
       <c r="K12">
-        <v>3.835382676343219</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="L12">
-        <v>0.03001048724434658</v>
+        <v>0.6676805236678464</v>
       </c>
       <c r="M12">
-        <v>0.01560321736879387</v>
+        <v>4.019766641527353</v>
       </c>
       <c r="N12">
-        <v>0.01560321736879387</v>
+        <v>4.019766641527353</v>
       </c>
       <c r="O12">
-        <v>0.3847834102128331</v>
+        <v>2.996357530928742</v>
       </c>
       <c r="P12">
-        <v>1.288863037026936</v>
+        <v>2.954372930807214</v>
       </c>
       <c r="Q12">
-        <v>1.288863037026936</v>
+        <v>2.954372930807214</v>
       </c>
       <c r="R12">
-        <v>1.925492946856006</v>
+        <v>2.421676075447145</v>
       </c>
       <c r="S12">
-        <v>1.925492946856006</v>
+        <v>2.421676075447145</v>
       </c>
       <c r="T12">
-        <v>1.059902907581899</v>
+        <v>1.958399949795505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.006242625921474099</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="D13">
-        <v>0.4867331853026468</v>
+        <v>0.7362375628800433</v>
       </c>
       <c r="E13">
-        <v>2.103189352075622</v>
+        <v>0.7964552898248236</v>
       </c>
       <c r="F13">
-        <v>0.006242625921474099</v>
+        <v>0.7362375628800433</v>
       </c>
       <c r="G13">
-        <v>0.3335060775395665</v>
+        <v>1.126439563604184</v>
       </c>
       <c r="H13">
-        <v>0.2004275526633825</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="I13">
-        <v>1.068178232894021</v>
+        <v>1.762168273551699</v>
       </c>
       <c r="J13">
-        <v>0.4867331853026468</v>
+        <v>0.6674571910093505</v>
       </c>
       <c r="K13">
-        <v>0.006242625921474099</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="L13">
-        <v>2.103189352075622</v>
+        <v>0.7964552898248236</v>
       </c>
       <c r="M13">
-        <v>1.294961268689134</v>
+        <v>0.7663464263524334</v>
       </c>
       <c r="N13">
-        <v>1.294961268689134</v>
+        <v>0.7663464263524334</v>
       </c>
       <c r="O13">
-        <v>0.9301166966805502</v>
+        <v>0.7333833479047391</v>
       </c>
       <c r="P13">
-        <v>0.8653883877665808</v>
+        <v>0.950368918730255</v>
       </c>
       <c r="Q13">
-        <v>0.8653883877665808</v>
+        <v>0.950368918730255</v>
       </c>
       <c r="R13">
-        <v>0.6506019473053041</v>
+        <v>1.042380164919166</v>
       </c>
       <c r="S13">
-        <v>0.6506019473053041</v>
+        <v>1.042380164919166</v>
       </c>
       <c r="T13">
-        <v>0.6997128377327853</v>
+        <v>1.067861964059333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002237596383924272</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D14">
-        <v>0.00132849084851455</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="E14">
-        <v>0.3632148420855515</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="F14">
-        <v>0.002237596383924272</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="G14">
-        <v>1.379937255016047</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="H14">
-        <v>0.04684934235621934</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="I14">
-        <v>2.111746370789562</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="J14">
-        <v>0.00132849084851455</v>
+        <v>0.01383437200000002</v>
       </c>
       <c r="K14">
-        <v>0.002237596383924272</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="L14">
-        <v>0.3632148420855515</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="M14">
-        <v>0.182271666467033</v>
+        <v>30.37669386430003</v>
       </c>
       <c r="N14">
-        <v>0.182271666467033</v>
+        <v>30.37669386430003</v>
       </c>
       <c r="O14">
-        <v>0.1371308917634285</v>
+        <v>20.25574070020002</v>
       </c>
       <c r="P14">
-        <v>0.1222603097726635</v>
+        <v>20.25216155680002</v>
       </c>
       <c r="Q14">
-        <v>0.1222603097726635</v>
+        <v>20.25216155680002</v>
       </c>
       <c r="R14">
-        <v>0.09225463142547867</v>
+        <v>15.18989540305002</v>
       </c>
       <c r="S14">
-        <v>0.09225463142547867</v>
+        <v>15.18989540305002</v>
       </c>
       <c r="T14">
-        <v>0.6508856495799699</v>
+        <v>10.12866271580001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.359611698722837</v>
+        <v>30.381976</v>
       </c>
       <c r="D15">
-        <v>0.4869577846943858</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E15">
-        <v>0.4028156866737077</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F15">
-        <v>2.359611698722837</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G15">
-        <v>1.376818959164313</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H15">
-        <v>2.017995838561733</v>
+        <v>30.381976</v>
       </c>
       <c r="I15">
-        <v>0.6766963675953208</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J15">
-        <v>0.4869577846943858</v>
+        <v>0.0025420957</v>
       </c>
       <c r="K15">
-        <v>2.359611698722837</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>0.4028156866737077</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.4448867356840467</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.4448867356840467</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.9692564366432755</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>1.08312839003031</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>1.08312839003031</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>1.402249217203442</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>1.402249217203442</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>1.220149389235383</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001881522214346</v>
+        <v>30.381976</v>
       </c>
       <c r="D16">
-        <v>1.006170774587691</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E16">
-        <v>1.001488506621857</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F16">
-        <v>1.001881522214346</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G16">
-        <v>1.003285536976803</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H16">
-        <v>1.002720050112524</v>
+        <v>30.381976</v>
       </c>
       <c r="I16">
-        <v>1.000498040550281</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J16">
-        <v>1.006170774587691</v>
+        <v>0.0025420957</v>
       </c>
       <c r="K16">
-        <v>1.001881522214346</v>
+        <v>30.381976</v>
       </c>
       <c r="L16">
-        <v>1.001488506621857</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>1.003829640604774</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N16">
-        <v>1.003829640604774</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O16">
-        <v>1.003459777107357</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P16">
-        <v>1.003180267807964</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q16">
-        <v>1.003180267807964</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R16">
-        <v>1.00285558140956</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S16">
-        <v>1.00285558140956</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T16">
-        <v>1.002674071843917</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9762798381416543</v>
+        <v>0.00012699956</v>
       </c>
       <c r="D17">
-        <v>1.091507354589467</v>
+        <v>0.0025430571</v>
       </c>
       <c r="E17">
-        <v>0.9987341754763517</v>
+        <v>0.0096205757</v>
       </c>
       <c r="F17">
-        <v>0.9762798381416543</v>
+        <v>0.0025430571</v>
       </c>
       <c r="G17">
-        <v>1.01145794008015</v>
+        <v>0.0050087185</v>
       </c>
       <c r="H17">
-        <v>0.9854927788769746</v>
+        <v>0.00012699956</v>
       </c>
       <c r="I17">
-        <v>0.9978092532541324</v>
+        <v>21.164449</v>
       </c>
       <c r="J17">
-        <v>1.091507354589467</v>
+        <v>0.00046100145</v>
       </c>
       <c r="K17">
-        <v>0.9762798381416543</v>
+        <v>0.00012699956</v>
       </c>
       <c r="L17">
-        <v>0.9987341754763517</v>
+        <v>0.0096205757</v>
       </c>
       <c r="M17">
-        <v>1.04512076503291</v>
+        <v>0.0060818164</v>
       </c>
       <c r="N17">
-        <v>1.04512076503291</v>
+        <v>0.0060818164</v>
       </c>
       <c r="O17">
-        <v>1.025244769647598</v>
+        <v>0.004208211416666667</v>
       </c>
       <c r="P17">
-        <v>1.022173789402491</v>
+        <v>0.004096877453333334</v>
       </c>
       <c r="Q17">
-        <v>1.022173789402491</v>
+        <v>0.004096877453333333</v>
       </c>
       <c r="R17">
-        <v>1.010700301587282</v>
+        <v>0.00310440798</v>
       </c>
       <c r="S17">
-        <v>1.010700301587282</v>
+        <v>0.00310440798</v>
       </c>
       <c r="T17">
-        <v>1.010213556736455</v>
+        <v>3.530368225385001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.131291128779573</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="D18">
-        <v>0.9269954628377155</v>
+        <v>7.094827137778083</v>
       </c>
       <c r="E18">
-        <v>1.005734921244429</v>
+        <v>0.001043307932054795</v>
       </c>
       <c r="F18">
-        <v>1.131291128779573</v>
+        <v>7.094827137778083</v>
       </c>
       <c r="G18">
-        <v>1.035922430228933</v>
+        <v>0.005240501350136984</v>
       </c>
       <c r="H18">
-        <v>1.095615118260847</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="I18">
-        <v>0.9840609961546819</v>
+        <v>-0.001298166143835616</v>
       </c>
       <c r="J18">
-        <v>0.9269954628377155</v>
+        <v>3.54653049980411</v>
       </c>
       <c r="K18">
-        <v>1.131291128779573</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="L18">
-        <v>1.005734921244429</v>
+        <v>0.001043307932054795</v>
       </c>
       <c r="M18">
-        <v>0.9663651920410722</v>
+        <v>3.547935222855069</v>
       </c>
       <c r="N18">
-        <v>0.9663651920410722</v>
+        <v>3.547935222855069</v>
       </c>
       <c r="O18">
-        <v>1.009448500780997</v>
+        <v>3.547466981838082</v>
       </c>
       <c r="P18">
-        <v>1.021340504287239</v>
+        <v>3.686337475847124</v>
       </c>
       <c r="Q18">
-        <v>1.021340504287239</v>
+        <v>3.686337475847124</v>
       </c>
       <c r="R18">
-        <v>1.048828160410323</v>
+        <v>3.755538602343152</v>
       </c>
       <c r="S18">
-        <v>1.048828160410323</v>
+        <v>3.755538602343152</v>
       </c>
       <c r="T18">
-        <v>1.02993667625103</v>
+        <v>2.434914210425297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.059589806164968</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="D19">
-        <v>1.579391214274182</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="E19">
-        <v>0.7994651389368337</v>
+        <v>1.70506817231</v>
       </c>
       <c r="F19">
-        <v>1.059589806164968</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="G19">
-        <v>1.172517872298847</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="H19">
-        <v>1.124071295691524</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="I19">
-        <v>1.049196621869387</v>
+        <v>5.109614947677896</v>
       </c>
       <c r="J19">
-        <v>1.579391214274182</v>
+        <v>0.03246660507421052</v>
       </c>
       <c r="K19">
-        <v>1.059589806164968</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="L19">
-        <v>0.7994651389368337</v>
+        <v>1.70506817231</v>
       </c>
       <c r="M19">
-        <v>1.189428176605508</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="N19">
-        <v>1.189428176605508</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="O19">
-        <v>1.16764254963418</v>
+        <v>2.247832738373685</v>
       </c>
       <c r="P19">
-        <v>1.146148719791995</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="Q19">
-        <v>1.146148719791995</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="R19">
-        <v>1.124508991385238</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="S19">
-        <v>1.124508991385238</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="T19">
-        <v>1.130705324872624</v>
+        <v>2.41402164764079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="D20">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="E20">
+        <v>1.70506817231</v>
+      </c>
+      <c r="F20">
+        <v>5.005963437736844</v>
+      </c>
+      <c r="G20">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="H20">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="I20">
+        <v>5.109614947677896</v>
+      </c>
+      <c r="J20">
+        <v>0.03246660507421052</v>
+      </c>
+      <c r="K20">
+        <v>2.504103374542631</v>
+      </c>
+      <c r="L20">
+        <v>1.70506817231</v>
+      </c>
+      <c r="M20">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="N20">
+        <v>3.355515805023422</v>
+      </c>
+      <c r="O20">
+        <v>2.247832738373685</v>
+      </c>
+      <c r="P20">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="Q20">
+        <v>3.071711661529825</v>
+      </c>
+      <c r="R20">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="S20">
+        <v>2.929809589783027</v>
+      </c>
+      <c r="T20">
+        <v>2.41402164764079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="D21">
+        <v>0.001328490848514552</v>
+      </c>
+      <c r="E21">
+        <v>0.3632148420855519</v>
+      </c>
+      <c r="F21">
+        <v>0.001328490848514552</v>
+      </c>
+      <c r="G21">
+        <v>2.111746370789562</v>
+      </c>
+      <c r="H21">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="I21">
+        <v>1.379937255016046</v>
+      </c>
+      <c r="J21">
+        <v>0.04684934235621927</v>
+      </c>
+      <c r="K21">
+        <v>0.002237596383924268</v>
+      </c>
+      <c r="L21">
+        <v>0.3632148420855519</v>
+      </c>
+      <c r="M21">
+        <v>0.1822716664670332</v>
+      </c>
+      <c r="N21">
+        <v>0.1822716664670332</v>
+      </c>
+      <c r="O21">
+        <v>0.1371308917634286</v>
+      </c>
+      <c r="P21">
+        <v>0.1222603097726636</v>
+      </c>
+      <c r="Q21">
+        <v>0.1222603097726636</v>
+      </c>
+      <c r="R21">
+        <v>0.09225463142547877</v>
+      </c>
+      <c r="S21">
+        <v>0.09225463142547877</v>
+      </c>
+      <c r="T21">
+        <v>0.6508856495799696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="D22">
+        <v>0.4869577846943858</v>
+      </c>
+      <c r="E22">
+        <v>0.4028156866737077</v>
+      </c>
+      <c r="F22">
+        <v>0.4869577846943858</v>
+      </c>
+      <c r="G22">
+        <v>0.6766963675953208</v>
+      </c>
+      <c r="H22">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="I22">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="J22">
+        <v>2.017995838561733</v>
+      </c>
+      <c r="K22">
+        <v>2.359611698722836</v>
+      </c>
+      <c r="L22">
+        <v>0.4028156866737077</v>
+      </c>
+      <c r="M22">
+        <v>0.4448867356840467</v>
+      </c>
+      <c r="N22">
+        <v>0.4448867356840467</v>
+      </c>
+      <c r="O22">
+        <v>0.9692564366432754</v>
+      </c>
+      <c r="P22">
+        <v>1.08312839003031</v>
+      </c>
+      <c r="Q22">
+        <v>1.08312839003031</v>
+      </c>
+      <c r="R22">
+        <v>1.402249217203441</v>
+      </c>
+      <c r="S22">
+        <v>1.402249217203441</v>
+      </c>
+      <c r="T22">
+        <v>1.220149389235383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="D23">
+        <v>0.001195947493241166</v>
+      </c>
+      <c r="E23">
+        <v>0.03001048724434658</v>
+      </c>
+      <c r="F23">
+        <v>0.001195947493241166</v>
+      </c>
+      <c r="G23">
+        <v>1.36929409942775</v>
+      </c>
+      <c r="H23">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="I23">
+        <v>0.0003904390819234766</v>
+      </c>
+      <c r="J23">
+        <v>1.123143795900909</v>
+      </c>
+      <c r="K23">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="L23">
+        <v>0.03001048724434658</v>
+      </c>
+      <c r="M23">
+        <v>0.01560321736879387</v>
+      </c>
+      <c r="N23">
+        <v>0.01560321736879387</v>
+      </c>
+      <c r="O23">
+        <v>0.3847834102128324</v>
+      </c>
+      <c r="P23">
+        <v>1.288863037026936</v>
+      </c>
+      <c r="Q23">
+        <v>1.288863037026936</v>
+      </c>
+      <c r="R23">
+        <v>1.925492946856006</v>
+      </c>
+      <c r="S23">
+        <v>1.925492946856006</v>
+      </c>
+      <c r="T23">
+        <v>1.059902907581898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="D24">
+        <v>0.4867331853026466</v>
+      </c>
+      <c r="E24">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="F24">
+        <v>0.4867331853026466</v>
+      </c>
+      <c r="G24">
+        <v>1.06817823289402</v>
+      </c>
+      <c r="H24">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="I24">
+        <v>0.3335060775395671</v>
+      </c>
+      <c r="J24">
+        <v>0.2004275526633824</v>
+      </c>
+      <c r="K24">
+        <v>0.006242625921474102</v>
+      </c>
+      <c r="L24">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="M24">
+        <v>1.294961268689134</v>
+      </c>
+      <c r="N24">
+        <v>1.294961268689134</v>
+      </c>
+      <c r="O24">
+        <v>0.9301166966805502</v>
+      </c>
+      <c r="P24">
+        <v>0.8653883877665808</v>
+      </c>
+      <c r="Q24">
+        <v>0.8653883877665808</v>
+      </c>
+      <c r="R24">
+        <v>0.6506019473053041</v>
+      </c>
+      <c r="S24">
+        <v>0.6506019473053041</v>
+      </c>
+      <c r="T24">
+        <v>0.6997128377327853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.002237596383924257</v>
+      </c>
+      <c r="D25">
+        <v>0.00132849085012286</v>
+      </c>
+      <c r="E25">
+        <v>0.3632148420855517</v>
+      </c>
+      <c r="F25">
+        <v>0.00132849085012286</v>
+      </c>
+      <c r="G25">
+        <v>2.111746370789563</v>
+      </c>
+      <c r="H25">
+        <v>0.002237596383924257</v>
+      </c>
+      <c r="I25">
+        <v>1.379937255016046</v>
+      </c>
+      <c r="J25">
+        <v>0.04684934235621926</v>
+      </c>
+      <c r="K25">
+        <v>0.002237596383924257</v>
+      </c>
+      <c r="L25">
+        <v>0.3632148420855517</v>
+      </c>
+      <c r="M25">
+        <v>0.1822716664678373</v>
+      </c>
+      <c r="N25">
+        <v>0.1822716664678373</v>
+      </c>
+      <c r="O25">
+        <v>0.1371308917639646</v>
+      </c>
+      <c r="P25">
+        <v>0.1222603097731996</v>
+      </c>
+      <c r="Q25">
+        <v>0.1222603097731996</v>
+      </c>
+      <c r="R25">
+        <v>0.09225463142588075</v>
+      </c>
+      <c r="S25">
+        <v>0.09225463142588075</v>
+      </c>
+      <c r="T25">
+        <v>0.6508856495802378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.359611698722837</v>
+      </c>
+      <c r="D26">
+        <v>0.4869577846942726</v>
+      </c>
+      <c r="E26">
+        <v>0.4028156866737083</v>
+      </c>
+      <c r="F26">
+        <v>0.4869577846942726</v>
+      </c>
+      <c r="G26">
+        <v>0.6766963675953207</v>
+      </c>
+      <c r="H26">
+        <v>2.359611698722837</v>
+      </c>
+      <c r="I26">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="J26">
+        <v>2.017995838561732</v>
+      </c>
+      <c r="K26">
+        <v>2.359611698722837</v>
+      </c>
+      <c r="L26">
+        <v>0.4028156866737083</v>
+      </c>
+      <c r="M26">
+        <v>0.4448867356839904</v>
+      </c>
+      <c r="N26">
+        <v>0.4448867356839904</v>
+      </c>
+      <c r="O26">
+        <v>0.9692564366432377</v>
+      </c>
+      <c r="P26">
+        <v>1.083128390030273</v>
+      </c>
+      <c r="Q26">
+        <v>1.083128390030273</v>
+      </c>
+      <c r="R26">
+        <v>1.402249217203414</v>
+      </c>
+      <c r="S26">
+        <v>1.402249217203414</v>
+      </c>
+      <c r="T26">
+        <v>1.220149389235364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="D27">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="E27">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="F27">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="G27">
+        <v>0.156336628195895</v>
+      </c>
+      <c r="H27">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="I27">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="J27">
+        <v>3.399774899901892</v>
+      </c>
+      <c r="K27">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="L27">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="M27">
+        <v>2.725800038170274</v>
+      </c>
+      <c r="N27">
+        <v>2.725800038170274</v>
+      </c>
+      <c r="O27">
+        <v>2.950458325414147</v>
+      </c>
+      <c r="P27">
+        <v>1.838515236974839</v>
+      </c>
+      <c r="Q27">
+        <v>1.838515236974839</v>
+      </c>
+      <c r="R27">
+        <v>1.394872836377122</v>
+      </c>
+      <c r="S27">
+        <v>1.394872836377122</v>
+      </c>
+      <c r="T27">
+        <v>1.514456533555086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="D28">
+        <v>3.060259434981299</v>
+      </c>
+      <c r="E28">
+        <v>0.9152339726657153</v>
+      </c>
+      <c r="F28">
+        <v>3.060259434981299</v>
+      </c>
+      <c r="G28">
+        <v>0.9164277599146141</v>
+      </c>
+      <c r="H28">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="I28">
+        <v>5.600055865073237</v>
+      </c>
+      <c r="J28">
+        <v>0.3598710073905105</v>
+      </c>
+      <c r="K28">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="L28">
+        <v>0.9152339726657153</v>
+      </c>
+      <c r="M28">
+        <v>1.987746703823507</v>
+      </c>
+      <c r="N28">
+        <v>1.987746703823507</v>
+      </c>
+      <c r="O28">
+        <v>1.445121471679175</v>
+      </c>
+      <c r="P28">
+        <v>1.376673922608241</v>
+      </c>
+      <c r="Q28">
+        <v>1.376673922608241</v>
+      </c>
+      <c r="R28">
+        <v>1.071137532000608</v>
+      </c>
+      <c r="S28">
+        <v>1.071137532000608</v>
+      </c>
+      <c r="T28">
+        <v>1.834396066700514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.04234832106681909</v>
+      </c>
+      <c r="D29">
+        <v>0.00106886207669188</v>
+      </c>
+      <c r="E29">
+        <v>1.918354273943963</v>
+      </c>
+      <c r="F29">
+        <v>0.00106886207669188</v>
+      </c>
+      <c r="G29">
+        <v>1.313964309969647</v>
+      </c>
+      <c r="H29">
+        <v>0.04234832106681909</v>
+      </c>
+      <c r="I29">
+        <v>10.25282930802086</v>
+      </c>
+      <c r="J29">
+        <v>0.03044204617115871</v>
+      </c>
+      <c r="K29">
+        <v>0.04234832106681909</v>
+      </c>
+      <c r="L29">
+        <v>1.918354273943963</v>
+      </c>
+      <c r="M29">
+        <v>0.9597115680103272</v>
+      </c>
+      <c r="N29">
+        <v>0.9597115680103272</v>
+      </c>
+      <c r="O29">
+        <v>0.6499550607306044</v>
+      </c>
+      <c r="P29">
+        <v>0.6539238190291579</v>
+      </c>
+      <c r="Q29">
+        <v>0.6539238190291579</v>
+      </c>
+      <c r="R29">
+        <v>0.5010299445385732</v>
+      </c>
+      <c r="S29">
+        <v>0.5010299445385732</v>
+      </c>
+      <c r="T29">
+        <v>2.25983452020819</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.891328764777978</v>
+        <v>0.7833644755522957</v>
       </c>
       <c r="D4">
-        <v>0.8941524586969465</v>
+        <v>4.191887422496192</v>
       </c>
       <c r="E4">
-        <v>0.905588116630975</v>
+        <v>0.8351787896682165</v>
       </c>
       <c r="F4">
-        <v>0.8941524586969465</v>
+        <v>4.191887422496192</v>
       </c>
       <c r="G4">
-        <v>0.9522171515412305</v>
+        <v>0.8288931744981429</v>
       </c>
       <c r="H4">
-        <v>1.891328764777978</v>
+        <v>0.7833644755522957</v>
       </c>
       <c r="I4">
-        <v>0.982972773672941</v>
+        <v>0.7813466683364458</v>
       </c>
       <c r="J4">
-        <v>0.8478895805075322</v>
+        <v>1.145667134711529</v>
       </c>
       <c r="K4">
-        <v>1.891328764777978</v>
+        <v>0.7833644755522957</v>
       </c>
       <c r="L4">
-        <v>0.905588116630975</v>
+        <v>0.8351787896682165</v>
       </c>
       <c r="M4">
-        <v>0.8998702876639608</v>
+        <v>2.513533106082204</v>
       </c>
       <c r="N4">
-        <v>0.8998702876639608</v>
+        <v>2.513533106082204</v>
       </c>
       <c r="O4">
-        <v>0.8825433852784846</v>
+        <v>2.057577782291979</v>
       </c>
       <c r="P4">
-        <v>1.230356446701967</v>
+        <v>1.936810229238901</v>
       </c>
       <c r="Q4">
-        <v>1.230356446701967</v>
+        <v>1.936810229238901</v>
       </c>
       <c r="R4">
-        <v>1.395599526220969</v>
+        <v>1.64844879081725</v>
       </c>
       <c r="S4">
-        <v>1.395599526220969</v>
+        <v>1.64844879081725</v>
       </c>
       <c r="T4">
-        <v>1.079024807637934</v>
+        <v>1.42772294421047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8899068199416619</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="D5">
-        <v>5.629456975564855</v>
+        <v>1.455652432802103</v>
       </c>
       <c r="E5">
-        <v>0.8047603860489868</v>
+        <v>1.883633975494543</v>
       </c>
       <c r="F5">
-        <v>5.629456975564855</v>
+        <v>1.455652432802103</v>
       </c>
       <c r="G5">
-        <v>0.7774461182201344</v>
+        <v>0.1404432961006389</v>
       </c>
       <c r="H5">
-        <v>0.8899068199416619</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="I5">
-        <v>0.8011928128044317</v>
+        <v>5.65260721641592</v>
       </c>
       <c r="J5">
-        <v>1.148798363815448</v>
+        <v>0.03380859370988382</v>
       </c>
       <c r="K5">
-        <v>0.8899068199416619</v>
+        <v>2.017221202144075</v>
       </c>
       <c r="L5">
-        <v>0.8047603860489868</v>
+        <v>1.883633975494543</v>
       </c>
       <c r="M5">
-        <v>3.217108680806921</v>
+        <v>1.669643204148323</v>
       </c>
       <c r="N5">
-        <v>3.217108680806921</v>
+        <v>1.669643204148323</v>
       </c>
       <c r="O5">
-        <v>2.52767190847643</v>
+        <v>1.124365000668843</v>
       </c>
       <c r="P5">
-        <v>2.441374727185168</v>
+        <v>1.785502536813574</v>
       </c>
       <c r="Q5">
-        <v>2.441374727185168</v>
+        <v>1.785502536813574</v>
       </c>
       <c r="R5">
-        <v>2.053507750374291</v>
+        <v>1.843432203146199</v>
       </c>
       <c r="S5">
-        <v>2.053507750374291</v>
+        <v>1.843432203146199</v>
       </c>
       <c r="T5">
-        <v>1.675260246065919</v>
+        <v>1.86389445277786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4094961863676275</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="D6">
-        <v>32.3893652463791</v>
+        <v>0.8941524586969465</v>
       </c>
       <c r="E6">
-        <v>0.4160686587720799</v>
+        <v>0.905588116630975</v>
       </c>
       <c r="F6">
-        <v>32.3893652463791</v>
+        <v>0.8941524586969465</v>
       </c>
       <c r="G6">
-        <v>0.4133648537037015</v>
+        <v>0.9522171515412305</v>
       </c>
       <c r="H6">
-        <v>0.4094961863676275</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="I6">
-        <v>0.393944439210172</v>
+        <v>0.982972773672941</v>
       </c>
       <c r="J6">
-        <v>0.5718915571011643</v>
+        <v>0.8478895805075322</v>
       </c>
       <c r="K6">
-        <v>0.4094961863676275</v>
+        <v>1.891328764777978</v>
       </c>
       <c r="L6">
-        <v>0.4160686587720799</v>
+        <v>0.905588116630975</v>
       </c>
       <c r="M6">
-        <v>16.40271695257559</v>
+        <v>0.8998702876639608</v>
       </c>
       <c r="N6">
-        <v>16.40271695257559</v>
+        <v>0.8998702876639608</v>
       </c>
       <c r="O6">
-        <v>11.12577515408412</v>
+        <v>0.8825433852784846</v>
       </c>
       <c r="P6">
-        <v>11.0716433638396</v>
+        <v>1.230356446701967</v>
       </c>
       <c r="Q6">
-        <v>11.0716433638396</v>
+        <v>1.230356446701967</v>
       </c>
       <c r="R6">
-        <v>8.406106569471609</v>
+        <v>1.395599526220969</v>
       </c>
       <c r="S6">
-        <v>8.406106569471609</v>
+        <v>1.395599526220969</v>
       </c>
       <c r="T6">
-        <v>5.765688490255642</v>
+        <v>1.079024807637934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.103442228335046</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="D7">
-        <v>1.273052140568336</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="E7">
-        <v>0.9700923801436743</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="F7">
-        <v>1.273052140568336</v>
+        <v>5.629456975564855</v>
       </c>
       <c r="G7">
-        <v>0.9525327865017588</v>
+        <v>0.7774461182201344</v>
       </c>
       <c r="H7">
-        <v>1.103442228335046</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="I7">
-        <v>0.9563686681649642</v>
+        <v>0.8011928128044317</v>
       </c>
       <c r="J7">
-        <v>1.107320505835282</v>
+        <v>1.148798363815448</v>
       </c>
       <c r="K7">
-        <v>1.103442228335046</v>
+        <v>0.8899068199416619</v>
       </c>
       <c r="L7">
-        <v>0.9700923801436743</v>
+        <v>0.8047603860489868</v>
       </c>
       <c r="M7">
-        <v>1.121572260356005</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="N7">
-        <v>1.121572260356005</v>
+        <v>3.217108680806921</v>
       </c>
       <c r="O7">
-        <v>1.116821675515764</v>
+        <v>2.52767190847643</v>
       </c>
       <c r="P7">
-        <v>1.115528916349019</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="Q7">
-        <v>1.115528916349019</v>
+        <v>2.441374727185168</v>
       </c>
       <c r="R7">
-        <v>1.112507244345526</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="S7">
-        <v>1.112507244345526</v>
+        <v>2.053507750374291</v>
       </c>
       <c r="T7">
-        <v>1.060468118258177</v>
+        <v>1.675260246065919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9762798381416552</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="D8">
-        <v>1.091507354589469</v>
+        <v>32.3893652463791</v>
       </c>
       <c r="E8">
-        <v>0.9987341754763509</v>
+        <v>0.4160686587720799</v>
       </c>
       <c r="F8">
-        <v>1.091507354589469</v>
+        <v>32.3893652463791</v>
       </c>
       <c r="G8">
-        <v>0.9978092532541321</v>
+        <v>0.4133648537037015</v>
       </c>
       <c r="H8">
-        <v>0.9762798381416552</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="I8">
-        <v>1.011457940080151</v>
+        <v>0.393944439210172</v>
       </c>
       <c r="J8">
-        <v>0.9854927788769757</v>
+        <v>0.5718915571011643</v>
       </c>
       <c r="K8">
-        <v>0.9762798381416552</v>
+        <v>0.4094961863676275</v>
       </c>
       <c r="L8">
-        <v>0.9987341754763509</v>
+        <v>0.4160686587720799</v>
       </c>
       <c r="M8">
-        <v>1.04512076503291</v>
+        <v>16.40271695257559</v>
       </c>
       <c r="N8">
-        <v>1.04512076503291</v>
+        <v>16.40271695257559</v>
       </c>
       <c r="O8">
-        <v>1.025244769647599</v>
+        <v>11.12577515408412</v>
       </c>
       <c r="P8">
-        <v>1.022173789402492</v>
+        <v>11.0716433638396</v>
       </c>
       <c r="Q8">
-        <v>1.022173789402492</v>
+        <v>11.0716433638396</v>
       </c>
       <c r="R8">
-        <v>1.010700301587283</v>
+        <v>8.406106569471609</v>
       </c>
       <c r="S8">
-        <v>1.010700301587283</v>
+        <v>8.406106569471609</v>
       </c>
       <c r="T8">
-        <v>1.010213556736456</v>
+        <v>5.765688490255642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.195481071040531</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="D9">
-        <v>1.668569767063155</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="E9">
-        <v>0.9667862831996308</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="F9">
-        <v>1.668569767063155</v>
+        <v>1.273052140568336</v>
       </c>
       <c r="G9">
-        <v>0.907985466566307</v>
+        <v>0.9525327865017588</v>
       </c>
       <c r="H9">
-        <v>1.195481071040531</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="I9">
-        <v>0.9803550201303101</v>
+        <v>0.9563686681649642</v>
       </c>
       <c r="J9">
-        <v>1.230830920623486</v>
+        <v>1.107320505835282</v>
       </c>
       <c r="K9">
-        <v>1.195481071040531</v>
+        <v>1.103442228335046</v>
       </c>
       <c r="L9">
-        <v>0.9667862831996308</v>
+        <v>0.9700923801436743</v>
       </c>
       <c r="M9">
-        <v>1.317678025131393</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="N9">
-        <v>1.317678025131393</v>
+        <v>1.121572260356005</v>
       </c>
       <c r="O9">
-        <v>1.288728990295424</v>
+        <v>1.116821675515764</v>
       </c>
       <c r="P9">
-        <v>1.276945707101106</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="Q9">
-        <v>1.276945707101106</v>
+        <v>1.115528916349019</v>
       </c>
       <c r="R9">
-        <v>1.256579548085962</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="S9">
-        <v>1.256579548085962</v>
+        <v>1.112507244345526</v>
       </c>
       <c r="T9">
-        <v>1.15833475477057</v>
+        <v>1.060468118258177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4539804641273378</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="D10">
-        <v>33.07672866081646</v>
+        <v>1.091507354589469</v>
       </c>
       <c r="E10">
-        <v>0.3126385902700944</v>
+        <v>0.9987341754763509</v>
       </c>
       <c r="F10">
-        <v>33.07672866081646</v>
+        <v>1.091507354589469</v>
       </c>
       <c r="G10">
-        <v>0.3968061691901516</v>
+        <v>0.9978092532541321</v>
       </c>
       <c r="H10">
-        <v>0.4539804641273378</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="I10">
-        <v>0.5164383979748022</v>
+        <v>1.011457940080151</v>
       </c>
       <c r="J10">
-        <v>0.5274412962690345</v>
+        <v>0.9854927788769757</v>
       </c>
       <c r="K10">
-        <v>0.4539804641273378</v>
+        <v>0.9762798381416552</v>
       </c>
       <c r="L10">
-        <v>0.3126385902700944</v>
+        <v>0.9987341754763509</v>
       </c>
       <c r="M10">
-        <v>16.69468362554328</v>
+        <v>1.04512076503291</v>
       </c>
       <c r="N10">
-        <v>16.69468362554328</v>
+        <v>1.04512076503291</v>
       </c>
       <c r="O10">
-        <v>11.30560284911853</v>
+        <v>1.025244769647599</v>
       </c>
       <c r="P10">
-        <v>11.2811159050713</v>
+        <v>1.022173789402492</v>
       </c>
       <c r="Q10">
-        <v>11.2811159050713</v>
+        <v>1.022173789402492</v>
       </c>
       <c r="R10">
-        <v>8.574332044835311</v>
+        <v>1.010700301587283</v>
       </c>
       <c r="S10">
-        <v>8.574332044835311</v>
+        <v>1.010700301587283</v>
       </c>
       <c r="T10">
-        <v>5.880672263107981</v>
+        <v>1.010213556736456</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.100640466827627</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="D11">
-        <v>0.8709306974525001</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="E11">
-        <v>0.9295227330876391</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="F11">
-        <v>0.8709306974525001</v>
+        <v>1.668569767063155</v>
       </c>
       <c r="G11">
-        <v>0.9936519912172567</v>
+        <v>0.907985466566307</v>
       </c>
       <c r="H11">
-        <v>2.100640466827627</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="I11">
-        <v>0.4863941763242893</v>
+        <v>0.9803550201303101</v>
       </c>
       <c r="J11">
-        <v>0.9347833221653984</v>
+        <v>1.230830920623486</v>
       </c>
       <c r="K11">
-        <v>2.100640466827627</v>
+        <v>1.195481071040531</v>
       </c>
       <c r="L11">
-        <v>0.9295227330876391</v>
+        <v>0.9667862831996308</v>
       </c>
       <c r="M11">
-        <v>0.9002267152700696</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="N11">
-        <v>0.9002267152700696</v>
+        <v>1.317678025131393</v>
       </c>
       <c r="O11">
-        <v>0.9117455842351792</v>
+        <v>1.288728990295424</v>
       </c>
       <c r="P11">
-        <v>1.300364632455922</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="Q11">
-        <v>1.300364632455922</v>
+        <v>1.276945707101106</v>
       </c>
       <c r="R11">
-        <v>1.500433591048848</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="S11">
-        <v>1.500433591048848</v>
+        <v>1.256579548085962</v>
       </c>
       <c r="T11">
-        <v>1.052653897845785</v>
+        <v>1.15833475477057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8235855093669382</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="D12">
-        <v>7.371852759386859</v>
+        <v>33.07672866081646</v>
       </c>
       <c r="E12">
-        <v>0.6676805236678464</v>
+        <v>0.3126385902700944</v>
       </c>
       <c r="F12">
-        <v>7.371852759386859</v>
+        <v>33.07672866081646</v>
       </c>
       <c r="G12">
-        <v>0.795987864945722</v>
+        <v>0.3968061691901516</v>
       </c>
       <c r="H12">
-        <v>0.8235855093669382</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="I12">
-        <v>1.141753731674142</v>
+        <v>0.5164383979748022</v>
       </c>
       <c r="J12">
-        <v>0.9495393097315197</v>
+        <v>0.5274412962690345</v>
       </c>
       <c r="K12">
-        <v>0.8235855093669382</v>
+        <v>0.4539804641273378</v>
       </c>
       <c r="L12">
-        <v>0.6676805236678464</v>
+        <v>0.3126385902700944</v>
       </c>
       <c r="M12">
-        <v>4.019766641527353</v>
+        <v>16.69468362554328</v>
       </c>
       <c r="N12">
-        <v>4.019766641527353</v>
+        <v>16.69468362554328</v>
       </c>
       <c r="O12">
-        <v>2.996357530928742</v>
+        <v>11.30560284911853</v>
       </c>
       <c r="P12">
-        <v>2.954372930807214</v>
+        <v>11.2811159050713</v>
       </c>
       <c r="Q12">
-        <v>2.954372930807214</v>
+        <v>11.2811159050713</v>
       </c>
       <c r="R12">
-        <v>2.421676075447145</v>
+        <v>8.574332044835311</v>
       </c>
       <c r="S12">
-        <v>2.421676075447145</v>
+        <v>8.574332044835311</v>
       </c>
       <c r="T12">
-        <v>1.958399949795505</v>
+        <v>5.880672263107981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.318413903485898</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="D13">
-        <v>0.7362375628800433</v>
+        <v>0.8709306974525001</v>
       </c>
       <c r="E13">
-        <v>0.7964552898248236</v>
+        <v>0.9295227330876391</v>
       </c>
       <c r="F13">
-        <v>0.7362375628800433</v>
+        <v>0.8709306974525001</v>
       </c>
       <c r="G13">
-        <v>1.126439563604184</v>
+        <v>0.9936519912172567</v>
       </c>
       <c r="H13">
-        <v>1.318413903485898</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="I13">
-        <v>1.762168273551699</v>
+        <v>0.4863941763242893</v>
       </c>
       <c r="J13">
-        <v>0.6674571910093505</v>
+        <v>0.9347833221653984</v>
       </c>
       <c r="K13">
-        <v>1.318413903485898</v>
+        <v>2.100640466827627</v>
       </c>
       <c r="L13">
-        <v>0.7964552898248236</v>
+        <v>0.9295227330876391</v>
       </c>
       <c r="M13">
-        <v>0.7663464263524334</v>
+        <v>0.9002267152700696</v>
       </c>
       <c r="N13">
-        <v>0.7663464263524334</v>
+        <v>0.9002267152700696</v>
       </c>
       <c r="O13">
-        <v>0.7333833479047391</v>
+        <v>0.9117455842351792</v>
       </c>
       <c r="P13">
-        <v>0.950368918730255</v>
+        <v>1.300364632455922</v>
       </c>
       <c r="Q13">
-        <v>0.950368918730255</v>
+        <v>1.300364632455922</v>
       </c>
       <c r="R13">
-        <v>1.042380164919166</v>
+        <v>1.500433591048848</v>
       </c>
       <c r="S13">
-        <v>1.042380164919166</v>
+        <v>1.500433591048848</v>
       </c>
       <c r="T13">
-        <v>1.067861964059333</v>
+        <v>1.052653897845785</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003096941800000001</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="D14">
-        <v>60.75982100000006</v>
+        <v>7.371852759386859</v>
       </c>
       <c r="E14">
-        <v>-0.006433271399999997</v>
+        <v>0.6676805236678464</v>
       </c>
       <c r="F14">
-        <v>60.75982100000006</v>
+        <v>7.371852759386859</v>
       </c>
       <c r="G14">
-        <v>-0.0045788157</v>
+        <v>0.795987864945722</v>
       </c>
       <c r="H14">
-        <v>0.003096941800000001</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="I14">
-        <v>0.006236068099999995</v>
+        <v>1.141753731674142</v>
       </c>
       <c r="J14">
-        <v>0.01383437200000002</v>
+        <v>0.9495393097315197</v>
       </c>
       <c r="K14">
-        <v>0.003096941800000001</v>
+        <v>0.8235855093669382</v>
       </c>
       <c r="L14">
-        <v>-0.006433271399999997</v>
+        <v>0.6676805236678464</v>
       </c>
       <c r="M14">
-        <v>30.37669386430003</v>
+        <v>4.019766641527353</v>
       </c>
       <c r="N14">
-        <v>30.37669386430003</v>
+        <v>4.019766641527353</v>
       </c>
       <c r="O14">
-        <v>20.25574070020002</v>
+        <v>2.996357530928742</v>
       </c>
       <c r="P14">
-        <v>20.25216155680002</v>
+        <v>2.954372930807214</v>
       </c>
       <c r="Q14">
-        <v>20.25216155680002</v>
+        <v>2.954372930807214</v>
       </c>
       <c r="R14">
-        <v>15.18989540305002</v>
+        <v>2.421676075447145</v>
       </c>
       <c r="S14">
-        <v>15.18989540305002</v>
+        <v>2.421676075447145</v>
       </c>
       <c r="T14">
-        <v>10.12866271580001</v>
+        <v>1.958399949795505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>30.381976</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="D15">
-        <v>0.0030969418</v>
+        <v>0.7362375628800433</v>
       </c>
       <c r="E15">
-        <v>-0.0012295708</v>
+        <v>0.7964552898248236</v>
       </c>
       <c r="F15">
-        <v>0.0030969418</v>
+        <v>0.7362375628800433</v>
       </c>
       <c r="G15">
-        <v>0.0037430372</v>
+        <v>1.126439563604184</v>
       </c>
       <c r="H15">
-        <v>30.381976</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="I15">
-        <v>-0.0027921709</v>
+        <v>1.762168273551699</v>
       </c>
       <c r="J15">
-        <v>0.0025420957</v>
+        <v>0.6674571910093505</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>1.318413903485898</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.7964552898248236</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>0.7663464263524334</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>0.7663464263524334</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>0.7333833479047391</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>0.950368918730255</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>0.950368918730255</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.042380164919166</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.042380164919166</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.067861964059333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>30.381976</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D16">
-        <v>0.0030969418</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="E16">
-        <v>-0.0012295708</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="F16">
-        <v>0.0030969418</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="G16">
-        <v>0.0037430372</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="H16">
-        <v>30.381976</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="I16">
-        <v>-0.0027921709</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="J16">
-        <v>0.0025420957</v>
+        <v>0.01383437200000002</v>
       </c>
       <c r="K16">
-        <v>30.381976</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="L16">
-        <v>-0.0012295708</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="M16">
-        <v>0.0009336855</v>
+        <v>30.37669386430003</v>
       </c>
       <c r="N16">
-        <v>0.0009336855</v>
+        <v>30.37669386430003</v>
       </c>
       <c r="O16">
-        <v>0.001469822233333333</v>
+        <v>20.25574070020002</v>
       </c>
       <c r="P16">
-        <v>10.12794779033333</v>
+        <v>20.25216155680002</v>
       </c>
       <c r="Q16">
-        <v>10.12794779033333</v>
+        <v>20.25216155680002</v>
       </c>
       <c r="R16">
-        <v>15.19145484275</v>
+        <v>15.18989540305002</v>
       </c>
       <c r="S16">
-        <v>15.19145484275</v>
+        <v>15.18989540305002</v>
       </c>
       <c r="T16">
-        <v>5.0645560555</v>
+        <v>10.12866271580001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.00012699956</v>
+        <v>30.381976</v>
       </c>
       <c r="D17">
-        <v>0.0025430571</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E17">
-        <v>0.0096205757</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F17">
-        <v>0.0025430571</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G17">
-        <v>0.0050087185</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H17">
-        <v>0.00012699956</v>
+        <v>30.381976</v>
       </c>
       <c r="I17">
-        <v>21.164449</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J17">
-        <v>0.00046100145</v>
+        <v>0.0025420957</v>
       </c>
       <c r="K17">
-        <v>0.00012699956</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>0.0096205757</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>0.0060818164</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>0.0060818164</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>0.004208211416666667</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>0.004096877453333334</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>0.004096877453333333</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>0.00310440798</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>0.00310440798</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>3.530368225385001</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.963141981831235</v>
+        <v>30.381976</v>
       </c>
       <c r="D18">
-        <v>7.094827137778083</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E18">
-        <v>0.001043307932054795</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F18">
-        <v>7.094827137778083</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G18">
-        <v>0.005240501350136984</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H18">
-        <v>3.963141981831235</v>
+        <v>30.381976</v>
       </c>
       <c r="I18">
-        <v>-0.001298166143835616</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J18">
-        <v>3.54653049980411</v>
+        <v>0.0025420957</v>
       </c>
       <c r="K18">
-        <v>3.963141981831235</v>
+        <v>30.381976</v>
       </c>
       <c r="L18">
-        <v>0.001043307932054795</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M18">
-        <v>3.547935222855069</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N18">
-        <v>3.547935222855069</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O18">
-        <v>3.547466981838082</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P18">
-        <v>3.686337475847124</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q18">
-        <v>3.686337475847124</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R18">
-        <v>3.755538602343152</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S18">
-        <v>3.755538602343152</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T18">
-        <v>2.434914210425297</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.504103374542631</v>
+        <v>0.00012699956</v>
       </c>
       <c r="D19">
-        <v>5.005963437736844</v>
+        <v>0.0025430571</v>
       </c>
       <c r="E19">
-        <v>1.70506817231</v>
+        <v>0.0096205757</v>
       </c>
       <c r="F19">
-        <v>5.005963437736844</v>
+        <v>0.0025430571</v>
       </c>
       <c r="G19">
-        <v>0.1269133485031579</v>
+        <v>0.0050087185</v>
       </c>
       <c r="H19">
-        <v>2.504103374542631</v>
+        <v>0.00012699956</v>
       </c>
       <c r="I19">
-        <v>5.109614947677896</v>
+        <v>21.164449</v>
       </c>
       <c r="J19">
-        <v>0.03246660507421052</v>
+        <v>0.00046100145</v>
       </c>
       <c r="K19">
-        <v>2.504103374542631</v>
+        <v>0.00012699956</v>
       </c>
       <c r="L19">
-        <v>1.70506817231</v>
+        <v>0.0096205757</v>
       </c>
       <c r="M19">
-        <v>3.355515805023422</v>
+        <v>0.0060818164</v>
       </c>
       <c r="N19">
-        <v>3.355515805023422</v>
+        <v>0.0060818164</v>
       </c>
       <c r="O19">
-        <v>2.247832738373685</v>
+        <v>0.004208211416666667</v>
       </c>
       <c r="P19">
-        <v>3.071711661529825</v>
+        <v>0.004096877453333334</v>
       </c>
       <c r="Q19">
-        <v>3.071711661529825</v>
+        <v>0.004096877453333333</v>
       </c>
       <c r="R19">
-        <v>2.929809589783027</v>
+        <v>0.00310440798</v>
       </c>
       <c r="S19">
-        <v>2.929809589783027</v>
+        <v>0.00310440798</v>
       </c>
       <c r="T19">
-        <v>2.41402164764079</v>
+        <v>3.530368225385001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.504103374542631</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="D20">
-        <v>5.005963437736844</v>
+        <v>7.094827137778083</v>
       </c>
       <c r="E20">
-        <v>1.70506817231</v>
+        <v>0.001043307932054795</v>
       </c>
       <c r="F20">
-        <v>5.005963437736844</v>
+        <v>7.094827137778083</v>
       </c>
       <c r="G20">
-        <v>0.1269133485031579</v>
+        <v>0.005240501350136984</v>
       </c>
       <c r="H20">
-        <v>2.504103374542631</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="I20">
-        <v>5.109614947677896</v>
+        <v>-0.001298166143835616</v>
       </c>
       <c r="J20">
-        <v>0.03246660507421052</v>
+        <v>3.54653049980411</v>
       </c>
       <c r="K20">
-        <v>2.504103374542631</v>
+        <v>3.963141981831235</v>
       </c>
       <c r="L20">
-        <v>1.70506817231</v>
+        <v>0.001043307932054795</v>
       </c>
       <c r="M20">
-        <v>3.355515805023422</v>
+        <v>3.547935222855069</v>
       </c>
       <c r="N20">
-        <v>3.355515805023422</v>
+        <v>3.547935222855069</v>
       </c>
       <c r="O20">
-        <v>2.247832738373685</v>
+        <v>3.547466981838082</v>
       </c>
       <c r="P20">
-        <v>3.071711661529825</v>
+        <v>3.686337475847124</v>
       </c>
       <c r="Q20">
-        <v>3.071711661529825</v>
+        <v>3.686337475847124</v>
       </c>
       <c r="R20">
-        <v>2.929809589783027</v>
+        <v>3.755538602343152</v>
       </c>
       <c r="S20">
-        <v>2.929809589783027</v>
+        <v>3.755538602343152</v>
       </c>
       <c r="T20">
-        <v>2.41402164764079</v>
+        <v>2.434914210425297</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.002237596383924268</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="D21">
-        <v>0.001328490848514552</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="E21">
-        <v>0.3632148420855519</v>
+        <v>1.70506817231</v>
       </c>
       <c r="F21">
-        <v>0.001328490848514552</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="G21">
-        <v>2.111746370789562</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="H21">
-        <v>0.002237596383924268</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="I21">
-        <v>1.379937255016046</v>
+        <v>5.109614947677896</v>
       </c>
       <c r="J21">
-        <v>0.04684934235621927</v>
+        <v>0.03246660507421052</v>
       </c>
       <c r="K21">
-        <v>0.002237596383924268</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="L21">
-        <v>0.3632148420855519</v>
+        <v>1.70506817231</v>
       </c>
       <c r="M21">
-        <v>0.1822716664670332</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="N21">
-        <v>0.1822716664670332</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="O21">
-        <v>0.1371308917634286</v>
+        <v>2.247832738373685</v>
       </c>
       <c r="P21">
-        <v>0.1222603097726636</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="Q21">
-        <v>0.1222603097726636</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="R21">
-        <v>0.09225463142547877</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="S21">
-        <v>0.09225463142547877</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="T21">
-        <v>0.6508856495799696</v>
+        <v>2.41402164764079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.359611698722836</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="D22">
-        <v>0.4869577846943858</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="E22">
-        <v>0.4028156866737077</v>
+        <v>1.70506817231</v>
       </c>
       <c r="F22">
-        <v>0.4869577846943858</v>
+        <v>5.005963437736844</v>
       </c>
       <c r="G22">
-        <v>0.6766963675953208</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="H22">
-        <v>2.359611698722836</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="I22">
-        <v>1.376818959164313</v>
+        <v>5.109614947677896</v>
       </c>
       <c r="J22">
-        <v>2.017995838561733</v>
+        <v>0.03246660507421052</v>
       </c>
       <c r="K22">
-        <v>2.359611698722836</v>
+        <v>2.504103374542631</v>
       </c>
       <c r="L22">
-        <v>0.4028156866737077</v>
+        <v>1.70506817231</v>
       </c>
       <c r="M22">
-        <v>0.4448867356840467</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="N22">
-        <v>0.4448867356840467</v>
+        <v>3.355515805023422</v>
       </c>
       <c r="O22">
-        <v>0.9692564366432754</v>
+        <v>2.247832738373685</v>
       </c>
       <c r="P22">
-        <v>1.08312839003031</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="Q22">
-        <v>1.08312839003031</v>
+        <v>3.071711661529825</v>
       </c>
       <c r="R22">
-        <v>1.402249217203441</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="S22">
-        <v>1.402249217203441</v>
+        <v>2.929809589783027</v>
       </c>
       <c r="T22">
-        <v>1.220149389235383</v>
+        <v>2.41402164764079</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.835382676343219</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="D23">
-        <v>0.001195947493241166</v>
+        <v>0.001328490848514552</v>
       </c>
       <c r="E23">
-        <v>0.03001048724434658</v>
+        <v>0.3632148420855519</v>
       </c>
       <c r="F23">
-        <v>0.001195947493241166</v>
+        <v>0.001328490848514552</v>
       </c>
       <c r="G23">
-        <v>1.36929409942775</v>
+        <v>2.111746370789562</v>
       </c>
       <c r="H23">
-        <v>3.835382676343219</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="I23">
-        <v>0.0003904390819234766</v>
+        <v>1.379937255016046</v>
       </c>
       <c r="J23">
-        <v>1.123143795900909</v>
+        <v>0.04684934235621927</v>
       </c>
       <c r="K23">
-        <v>3.835382676343219</v>
+        <v>0.002237596383924268</v>
       </c>
       <c r="L23">
-        <v>0.03001048724434658</v>
+        <v>0.3632148420855519</v>
       </c>
       <c r="M23">
-        <v>0.01560321736879387</v>
+        <v>0.1822716664670332</v>
       </c>
       <c r="N23">
-        <v>0.01560321736879387</v>
+        <v>0.1822716664670332</v>
       </c>
       <c r="O23">
-        <v>0.3847834102128324</v>
+        <v>0.1371308917634286</v>
       </c>
       <c r="P23">
-        <v>1.288863037026936</v>
+        <v>0.1222603097726636</v>
       </c>
       <c r="Q23">
-        <v>1.288863037026936</v>
+        <v>0.1222603097726636</v>
       </c>
       <c r="R23">
-        <v>1.925492946856006</v>
+        <v>0.09225463142547877</v>
       </c>
       <c r="S23">
-        <v>1.925492946856006</v>
+        <v>0.09225463142547877</v>
       </c>
       <c r="T23">
-        <v>1.059902907581898</v>
+        <v>0.6508856495799696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.006242625921474102</v>
+        <v>2.359611698722836</v>
       </c>
       <c r="D24">
-        <v>0.4867331853026466</v>
+        <v>0.4869577846943858</v>
       </c>
       <c r="E24">
-        <v>2.103189352075622</v>
+        <v>0.4028156866737077</v>
       </c>
       <c r="F24">
-        <v>0.4867331853026466</v>
+        <v>0.4869577846943858</v>
       </c>
       <c r="G24">
-        <v>1.06817823289402</v>
+        <v>0.6766963675953208</v>
       </c>
       <c r="H24">
-        <v>0.006242625921474102</v>
+        <v>2.359611698722836</v>
       </c>
       <c r="I24">
-        <v>0.3335060775395671</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="J24">
-        <v>0.2004275526633824</v>
+        <v>2.017995838561733</v>
       </c>
       <c r="K24">
-        <v>0.006242625921474102</v>
+        <v>2.359611698722836</v>
       </c>
       <c r="L24">
-        <v>2.103189352075622</v>
+        <v>0.4028156866737077</v>
       </c>
       <c r="M24">
-        <v>1.294961268689134</v>
+        <v>0.4448867356840467</v>
       </c>
       <c r="N24">
-        <v>1.294961268689134</v>
+        <v>0.4448867356840467</v>
       </c>
       <c r="O24">
-        <v>0.9301166966805502</v>
+        <v>0.9692564366432754</v>
       </c>
       <c r="P24">
-        <v>0.8653883877665808</v>
+        <v>1.08312839003031</v>
       </c>
       <c r="Q24">
-        <v>0.8653883877665808</v>
+        <v>1.08312839003031</v>
       </c>
       <c r="R24">
-        <v>0.6506019473053041</v>
+        <v>1.402249217203441</v>
       </c>
       <c r="S24">
-        <v>0.6506019473053041</v>
+        <v>1.402249217203441</v>
       </c>
       <c r="T24">
-        <v>0.6997128377327853</v>
+        <v>1.220149389235383</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.002237596383924257</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="D25">
-        <v>0.00132849085012286</v>
+        <v>0.001195947493241166</v>
       </c>
       <c r="E25">
-        <v>0.3632148420855517</v>
+        <v>0.03001048724434658</v>
       </c>
       <c r="F25">
-        <v>0.00132849085012286</v>
+        <v>0.001195947493241166</v>
       </c>
       <c r="G25">
-        <v>2.111746370789563</v>
+        <v>1.36929409942775</v>
       </c>
       <c r="H25">
-        <v>0.002237596383924257</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="I25">
-        <v>1.379937255016046</v>
+        <v>0.0003904390819234766</v>
       </c>
       <c r="J25">
-        <v>0.04684934235621926</v>
+        <v>1.123143795900909</v>
       </c>
       <c r="K25">
-        <v>0.002237596383924257</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="L25">
-        <v>0.3632148420855517</v>
+        <v>0.03001048724434658</v>
       </c>
       <c r="M25">
-        <v>0.1822716664678373</v>
+        <v>0.01560321736879387</v>
       </c>
       <c r="N25">
-        <v>0.1822716664678373</v>
+        <v>0.01560321736879387</v>
       </c>
       <c r="O25">
-        <v>0.1371308917639646</v>
+        <v>0.3847834102128324</v>
       </c>
       <c r="P25">
-        <v>0.1222603097731996</v>
+        <v>1.288863037026936</v>
       </c>
       <c r="Q25">
-        <v>0.1222603097731996</v>
+        <v>1.288863037026936</v>
       </c>
       <c r="R25">
-        <v>0.09225463142588075</v>
+        <v>1.925492946856006</v>
       </c>
       <c r="S25">
-        <v>0.09225463142588075</v>
+        <v>1.925492946856006</v>
       </c>
       <c r="T25">
-        <v>0.6508856495802378</v>
+        <v>1.059902907581898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.359611698722837</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="D26">
-        <v>0.4869577846942726</v>
+        <v>0.4867331853026466</v>
       </c>
       <c r="E26">
-        <v>0.4028156866737083</v>
+        <v>2.103189352075622</v>
       </c>
       <c r="F26">
-        <v>0.4869577846942726</v>
+        <v>0.4867331853026466</v>
       </c>
       <c r="G26">
-        <v>0.6766963675953207</v>
+        <v>1.06817823289402</v>
       </c>
       <c r="H26">
-        <v>2.359611698722837</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="I26">
-        <v>1.376818959164313</v>
+        <v>0.3335060775395671</v>
       </c>
       <c r="J26">
-        <v>2.017995838561732</v>
+        <v>0.2004275526633824</v>
       </c>
       <c r="K26">
-        <v>2.359611698722837</v>
+        <v>0.006242625921474102</v>
       </c>
       <c r="L26">
-        <v>0.4028156866737083</v>
+        <v>2.103189352075622</v>
       </c>
       <c r="M26">
-        <v>0.4448867356839904</v>
+        <v>1.294961268689134</v>
       </c>
       <c r="N26">
-        <v>0.4448867356839904</v>
+        <v>1.294961268689134</v>
       </c>
       <c r="O26">
-        <v>0.9692564366432377</v>
+        <v>0.9301166966805502</v>
       </c>
       <c r="P26">
-        <v>1.083128390030273</v>
+        <v>0.8653883877665808</v>
       </c>
       <c r="Q26">
-        <v>1.083128390030273</v>
+        <v>0.8653883877665808</v>
       </c>
       <c r="R26">
-        <v>1.402249217203414</v>
+        <v>0.6506019473053041</v>
       </c>
       <c r="S26">
-        <v>1.402249217203414</v>
+        <v>0.6506019473053041</v>
       </c>
       <c r="T26">
-        <v>1.220149389235364</v>
+        <v>0.6997128377327853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.06394563458397066</v>
+        <v>0.002237596383924257</v>
       </c>
       <c r="D27">
-        <v>3.575753599251714</v>
+        <v>0.00132849085012286</v>
       </c>
       <c r="E27">
-        <v>1.875846477088833</v>
+        <v>0.3632148420855517</v>
       </c>
       <c r="F27">
-        <v>3.575753599251714</v>
+        <v>0.00132849085012286</v>
       </c>
       <c r="G27">
-        <v>0.156336628195895</v>
+        <v>2.111746370789563</v>
       </c>
       <c r="H27">
-        <v>0.06394563458397066</v>
+        <v>0.002237596383924257</v>
       </c>
       <c r="I27">
-        <v>0.01508196230821052</v>
+        <v>1.379937255016046</v>
       </c>
       <c r="J27">
-        <v>3.399774899901892</v>
+        <v>0.04684934235621926</v>
       </c>
       <c r="K27">
-        <v>0.06394563458397066</v>
+        <v>0.002237596383924257</v>
       </c>
       <c r="L27">
-        <v>1.875846477088833</v>
+        <v>0.3632148420855517</v>
       </c>
       <c r="M27">
-        <v>2.725800038170274</v>
+        <v>0.1822716664678373</v>
       </c>
       <c r="N27">
-        <v>2.725800038170274</v>
+        <v>0.1822716664678373</v>
       </c>
       <c r="O27">
-        <v>2.950458325414147</v>
+        <v>0.1371308917639646</v>
       </c>
       <c r="P27">
-        <v>1.838515236974839</v>
+        <v>0.1222603097731996</v>
       </c>
       <c r="Q27">
-        <v>1.838515236974839</v>
+        <v>0.1222603097731996</v>
       </c>
       <c r="R27">
-        <v>1.394872836377122</v>
+        <v>0.09225463142588075</v>
       </c>
       <c r="S27">
-        <v>1.394872836377122</v>
+        <v>0.09225463142588075</v>
       </c>
       <c r="T27">
-        <v>1.514456533555086</v>
+        <v>0.6508856495802378</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1545283601777098</v>
+        <v>2.359611698722837</v>
       </c>
       <c r="D28">
-        <v>3.060259434981299</v>
+        <v>0.4869577846942726</v>
       </c>
       <c r="E28">
-        <v>0.9152339726657153</v>
+        <v>0.4028156866737083</v>
       </c>
       <c r="F28">
-        <v>3.060259434981299</v>
+        <v>0.4869577846942726</v>
       </c>
       <c r="G28">
-        <v>0.9164277599146141</v>
+        <v>0.6766963675953207</v>
       </c>
       <c r="H28">
-        <v>0.1545283601777098</v>
+        <v>2.359611698722837</v>
       </c>
       <c r="I28">
-        <v>5.600055865073237</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="J28">
-        <v>0.3598710073905105</v>
+        <v>2.017995838561732</v>
       </c>
       <c r="K28">
-        <v>0.1545283601777098</v>
+        <v>2.359611698722837</v>
       </c>
       <c r="L28">
-        <v>0.9152339726657153</v>
+        <v>0.4028156866737083</v>
       </c>
       <c r="M28">
-        <v>1.987746703823507</v>
+        <v>0.4448867356839904</v>
       </c>
       <c r="N28">
-        <v>1.987746703823507</v>
+        <v>0.4448867356839904</v>
       </c>
       <c r="O28">
-        <v>1.445121471679175</v>
+        <v>0.9692564366432377</v>
       </c>
       <c r="P28">
-        <v>1.376673922608241</v>
+        <v>1.083128390030273</v>
       </c>
       <c r="Q28">
-        <v>1.376673922608241</v>
+        <v>1.083128390030273</v>
       </c>
       <c r="R28">
-        <v>1.071137532000608</v>
+        <v>1.402249217203414</v>
       </c>
       <c r="S28">
-        <v>1.071137532000608</v>
+        <v>1.402249217203414</v>
       </c>
       <c r="T28">
-        <v>1.834396066700514</v>
+        <v>1.220149389235364</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="D29">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="E29">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="F29">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="G29">
+        <v>0.156336628195895</v>
+      </c>
+      <c r="H29">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="I29">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="J29">
+        <v>3.399774899901892</v>
+      </c>
+      <c r="K29">
+        <v>0.06394563458397066</v>
+      </c>
+      <c r="L29">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="M29">
+        <v>2.725800038170274</v>
+      </c>
+      <c r="N29">
+        <v>2.725800038170274</v>
+      </c>
+      <c r="O29">
+        <v>2.950458325414147</v>
+      </c>
+      <c r="P29">
+        <v>1.838515236974839</v>
+      </c>
+      <c r="Q29">
+        <v>1.838515236974839</v>
+      </c>
+      <c r="R29">
+        <v>1.394872836377122</v>
+      </c>
+      <c r="S29">
+        <v>1.394872836377122</v>
+      </c>
+      <c r="T29">
+        <v>1.514456533555086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="D30">
+        <v>3.060259434981299</v>
+      </c>
+      <c r="E30">
+        <v>0.9152339726657153</v>
+      </c>
+      <c r="F30">
+        <v>3.060259434981299</v>
+      </c>
+      <c r="G30">
+        <v>0.9164277599146141</v>
+      </c>
+      <c r="H30">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="I30">
+        <v>5.600055865073237</v>
+      </c>
+      <c r="J30">
+        <v>0.3598710073905105</v>
+      </c>
+      <c r="K30">
+        <v>0.1545283601777098</v>
+      </c>
+      <c r="L30">
+        <v>0.9152339726657153</v>
+      </c>
+      <c r="M30">
+        <v>1.987746703823507</v>
+      </c>
+      <c r="N30">
+        <v>1.987746703823507</v>
+      </c>
+      <c r="O30">
+        <v>1.445121471679175</v>
+      </c>
+      <c r="P30">
+        <v>1.376673922608241</v>
+      </c>
+      <c r="Q30">
+        <v>1.376673922608241</v>
+      </c>
+      <c r="R30">
+        <v>1.071137532000608</v>
+      </c>
+      <c r="S30">
+        <v>1.071137532000608</v>
+      </c>
+      <c r="T30">
+        <v>1.834396066700514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.04234832106681909</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.00106886207669188</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.918354273943963</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.00106886207669188</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.313964309969647</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.04234832106681909</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>10.25282930802086</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.03044204617115871</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.04234832106681909</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.918354273943963</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9597115680103272</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9597115680103272</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.6499550607306044</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6539238190291579</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.6539238190291579</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.5010299445385732</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.5010299445385732</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.25983452020819</v>
       </c>
     </row>
